--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_28.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>926789.8067198636</v>
+        <v>934412.21247896</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3309965.019677883</v>
+        <v>3309965.019677885</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14746116.46095095</v>
+        <v>14746116.46095094</v>
       </c>
     </row>
     <row r="9">
@@ -1376,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>54.32106845083943</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>47.84599709149936</v>
+        <v>47.84599709149933</v>
       </c>
       <c r="G11" t="n">
         <v>54.32106845083943</v>
@@ -1388,7 +1388,7 @@
         <v>54.32106845083943</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>54.32106845083943</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>47.84599709149936</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>54.32106845083943</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>47.84599709149933</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>54.32106845083943</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>54.32106845083943</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>54.32106845083943</v>
       </c>
     </row>
     <row r="13">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>54.32106845083943</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>6.15705895871</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>54.32106845083943</v>
       </c>
       <c r="S13" t="n">
-        <v>54.32106845083943</v>
+        <v>41.68893813278934</v>
       </c>
       <c r="T13" t="n">
-        <v>47.84599709149936</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1616,10 +1616,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>54.32106845083943</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>47.84599709149936</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>54.32106845083943</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.32106845083943</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>47.84599709149933</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1695,13 +1695,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>47.84599709149934</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>54.32106845083943</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>54.32106845083943</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>54.32106845083943</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>54.32106845083943</v>
       </c>
       <c r="T15" t="n">
-        <v>47.84599709149936</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>54.32106845083943</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>54.32106845083943</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>54.32106845083943</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>54.32106845083943</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,19 +1777,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>54.32106845083943</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>47.84599709149936</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>54.32106845083943</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.32106845083943</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>6.15705895871</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>41.68893813278931</v>
       </c>
     </row>
     <row r="17">
@@ -1853,16 +1853,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>57.56419090773632</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>65.35444017681239</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>65.35444017681239</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>65.35444017681239</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,16 +1889,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>57.56419090773635</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>65.35444017681237</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>65.35444017681237</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>65.35444017681237</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1929,19 +1929,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>57.56419090773635</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>65.35444017681237</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>65.35444017681237</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>65.35444017681237</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,16 +1971,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>57.56419090773632</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>65.35444017681239</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>65.35444017681239</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>65.35444017681239</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>32.42233537808615</v>
+        <v>32.42233537808612</v>
       </c>
       <c r="D19" t="n">
-        <v>65.35444017681237</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>65.35444017681239</v>
       </c>
       <c r="U19" t="n">
-        <v>65.35444017681237</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>65.35444017681239</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>65.35444017681239</v>
       </c>
       <c r="Y19" t="n">
-        <v>65.35444017681237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,16 +2081,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>324.8127856654141</v>
+        <v>324.8127856654142</v>
       </c>
       <c r="D20" t="n">
-        <v>324.8127856654141</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>324.8127856654142</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>7.396276190471117</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,25 +2126,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>130.4482328343495</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.7424589278706</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3209193268197</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>286.0951016140968</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>324.8127856654142</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2169,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>120.8118497225844</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>110.6378313629142</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>89.88725838587192</v>
+        <v>89.8872583858719</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>168.6105596053724</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>199.4979683720141</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9304991594927</v>
+        <v>169.6250312555167</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>171.0577033520492</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>227.3530351679082</v>
+        <v>57.42795255647408</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1.132620740615081</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2324,16 +2324,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>324.8127856654141</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>324.8127856654142</v>
       </c>
       <c r="G23" t="n">
-        <v>324.8127856654141</v>
+        <v>324.8127856654142</v>
       </c>
       <c r="H23" t="n">
-        <v>324.8127856654141</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,19 +2363,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>34.77418228727694</v>
+        <v>64.35264268622637</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.7424589278706</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3209193268197</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>324.8127856654142</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2403,19 +2403,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>147.7867122257702</v>
       </c>
       <c r="F24" t="n">
-        <v>73.95060365240514</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.1780967566817</v>
       </c>
       <c r="H24" t="n">
-        <v>110.6378313629142</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>83.70123727574723</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2448,10 +2448,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>199.4979683720141</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9304991594927</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2518,16 +2518,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.54924050212247</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>153.9364154064008</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>221.5997331068963</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>6.885922801626956</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>324.8127856654141</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>64.35264268622633</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2600,25 +2600,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>130.4482328343495</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>201.9748636185028</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>221.7424589278706</v>
       </c>
       <c r="U26" t="n">
-        <v>56.742331898788</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>324.8127856654141</v>
       </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>324.8127856654141</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.225638096205697</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>83.70123727574723</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,25 +2679,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>89.8872583858719</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>168.6105596053724</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>199.4979683720141</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9304991594927</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>116.9710630972794</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2755,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>57.42795255647406</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>171.0577033520492</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>228.4856559085233</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,14 +2792,14 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>324.8127856654141</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>161.030345659143</v>
+        <v>210.3764013674599</v>
       </c>
       <c r="I29" t="n">
         <v>198.5566222935482</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>201.9748636185028</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3209193268197</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>324.8127856654141</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>324.8127856654141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,16 +2871,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2919,22 +2919,22 @@
         <v>89.8872583858719</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>168.6105596053724</v>
       </c>
       <c r="T30" t="n">
-        <v>199.4979683720141</v>
+        <v>15.92288024642023</v>
       </c>
       <c r="U30" t="n">
         <v>225.9304991594927</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>88.01366339429971</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>48.65367572658614</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>83.06460788559218</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3029,73 +3029,73 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>286.0951016140967</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>324.8127856654141</v>
       </c>
-      <c r="E32" t="n">
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>251.3209193268197</v>
+      </c>
+      <c r="V32" t="n">
         <v>324.8127856654141</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>34.77418228727704</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>324.8127856654141</v>
       </c>
       <c r="Y32" t="n">
-        <v>324.8127856654141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,19 +3105,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.1780967566817</v>
@@ -3126,7 +3126,7 @@
         <v>110.6378313629142</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>83.70123727574723</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>89.8872583858719</v>
       </c>
       <c r="S33" t="n">
-        <v>14.48782803050544</v>
+        <v>156.1690892662754</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3165,16 +3165,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3272,17 +3272,17 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>238.2491045225972</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>270.4917172145747</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
@@ -3311,25 +3311,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>130.4482328343495</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>201.9748636185028</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>176.3177252843196</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>270.4917172145747</v>
-      </c>
-      <c r="W35" t="n">
-        <v>270.4917172145747</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,25 +3342,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>4.391014632957609</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>17.94523744931555</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.1780967566817</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>110.6378313629142</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>89.8872583858719</v>
       </c>
       <c r="S36" t="n">
-        <v>168.6105596053724</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>199.4979683720141</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1.132620740615134</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3466,16 +3466,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.54924050212246</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>153.9364154064008</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>227.3530351679082</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>126.9716695760027</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,61 +3509,61 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>39.69248222904893</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>130.4482328343495</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>251.3209193268197</v>
+      </c>
+      <c r="V38" t="n">
         <v>270.4917172145747</v>
       </c>
-      <c r="G38" t="n">
+      <c r="W38" t="n">
         <v>270.4917172145747</v>
-      </c>
-      <c r="H38" t="n">
-        <v>270.4917172145747</v>
-      </c>
-      <c r="I38" t="n">
-        <v>198.5566222935482</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3627,22 +3627,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>89.8872583858719</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>199.4979683720141</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>205.9700196641001</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>61.69456859684578</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>82.05169326195428</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>228.4856559085235</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3743,22 +3743,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>259.4583454886018</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>259.4583454886018</v>
       </c>
       <c r="H41" t="n">
-        <v>158.9844010670644</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>198.5566222935482</v>
+        <v>155.56615974211</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>130.4482328343495</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>201.9748636185028</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>259.4583454886018</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>96.98190933031395</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>96.98190933031415</v>
       </c>
       <c r="T42" t="n">
         <v>199.4979683720141</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>61.23883480989548</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>171.0577033520492</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.42795255647408</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -5024,40 +5024,40 @@
         <v>217.2842738033577</v>
       </c>
       <c r="E11" t="n">
-        <v>162.4145076913987</v>
+        <v>217.2842738033577</v>
       </c>
       <c r="F11" t="n">
+        <v>168.9549838119442</v>
+      </c>
+      <c r="G11" t="n">
         <v>114.0852176999852</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>59.21545158802618</v>
       </c>
-      <c r="H11" t="n">
-        <v>4.345685476067155</v>
-      </c>
       <c r="I11" t="n">
-        <v>4.345685476067155</v>
+        <v>4.345685476067154</v>
       </c>
       <c r="J11" t="n">
-        <v>18.4938821912879</v>
+        <v>18.49388219128791</v>
       </c>
       <c r="K11" t="n">
         <v>72.27173995761893</v>
       </c>
       <c r="L11" t="n">
-        <v>109.7285582706957</v>
+        <v>126.04959772395</v>
       </c>
       <c r="M11" t="n">
-        <v>163.5064160370267</v>
+        <v>179.827455490281</v>
       </c>
       <c r="N11" t="n">
-        <v>163.5064160370267</v>
+        <v>194.1220783750903</v>
       </c>
       <c r="O11" t="n">
-        <v>163.5064160370267</v>
+        <v>194.1220783750903</v>
       </c>
       <c r="P11" t="n">
-        <v>217.2842738033577</v>
+        <v>194.1220783750903</v>
       </c>
       <c r="Q11" t="n">
         <v>217.2842738033577</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>107.5447415794397</v>
+        <v>59.21545158802618</v>
       </c>
       <c r="C12" t="n">
-        <v>107.5447415794397</v>
+        <v>59.21545158802618</v>
       </c>
       <c r="D12" t="n">
-        <v>107.5447415794397</v>
+        <v>59.21545158802618</v>
       </c>
       <c r="E12" t="n">
-        <v>107.5447415794397</v>
+        <v>59.21545158802618</v>
       </c>
       <c r="F12" t="n">
-        <v>107.5447415794397</v>
+        <v>59.21545158802618</v>
       </c>
       <c r="G12" t="n">
-        <v>107.5447415794397</v>
+        <v>59.21545158802618</v>
       </c>
       <c r="H12" t="n">
         <v>59.21545158802618</v>
       </c>
       <c r="I12" t="n">
-        <v>4.345685476067155</v>
+        <v>4.345685476067154</v>
       </c>
       <c r="J12" t="n">
         <v>19.07887483179882</v>
       </c>
       <c r="K12" t="n">
-        <v>72.85673259812987</v>
+        <v>72.85673259812985</v>
       </c>
       <c r="L12" t="n">
         <v>126.6345903644609</v>
       </c>
       <c r="M12" t="n">
-        <v>163.5064160370267</v>
+        <v>180.4124481307919</v>
       </c>
       <c r="N12" t="n">
-        <v>163.5064160370267</v>
+        <v>217.2842738033577</v>
       </c>
       <c r="O12" t="n">
-        <v>163.5064160370267</v>
+        <v>217.2842738033577</v>
       </c>
       <c r="P12" t="n">
-        <v>163.5064160370267</v>
+        <v>217.2842738033577</v>
       </c>
       <c r="Q12" t="n">
         <v>217.2842738033577</v>
       </c>
       <c r="R12" t="n">
-        <v>217.2842738033577</v>
+        <v>168.9549838119442</v>
       </c>
       <c r="S12" t="n">
-        <v>217.2842738033577</v>
+        <v>168.9549838119442</v>
       </c>
       <c r="T12" t="n">
-        <v>217.2842738033577</v>
+        <v>168.9549838119442</v>
       </c>
       <c r="U12" t="n">
-        <v>217.2842738033577</v>
+        <v>168.9549838119442</v>
       </c>
       <c r="V12" t="n">
-        <v>162.4145076913987</v>
+        <v>168.9549838119442</v>
       </c>
       <c r="W12" t="n">
-        <v>107.5447415794397</v>
+        <v>114.0852176999852</v>
       </c>
       <c r="X12" t="n">
-        <v>107.5447415794397</v>
+        <v>114.0852176999852</v>
       </c>
       <c r="Y12" t="n">
-        <v>107.5447415794397</v>
+        <v>59.21545158802618</v>
       </c>
     </row>
     <row r="13">
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.345685476067155</v>
+        <v>65.43470306147063</v>
       </c>
       <c r="C13" t="n">
-        <v>4.345685476067155</v>
+        <v>10.5649369495116</v>
       </c>
       <c r="D13" t="n">
-        <v>4.345685476067155</v>
+        <v>10.5649369495116</v>
       </c>
       <c r="E13" t="n">
-        <v>4.345685476067155</v>
+        <v>10.5649369495116</v>
       </c>
       <c r="F13" t="n">
-        <v>4.345685476067155</v>
+        <v>10.5649369495116</v>
       </c>
       <c r="G13" t="n">
-        <v>4.345685476067155</v>
+        <v>10.5649369495116</v>
       </c>
       <c r="H13" t="n">
-        <v>4.345685476067155</v>
+        <v>10.5649369495116</v>
       </c>
       <c r="I13" t="n">
-        <v>4.345685476067155</v>
+        <v>10.5649369495116</v>
       </c>
       <c r="J13" t="n">
-        <v>4.345685476067155</v>
+        <v>10.5649369495116</v>
       </c>
       <c r="K13" t="n">
-        <v>4.345685476067155</v>
+        <v>4.345685476067154</v>
       </c>
       <c r="L13" t="n">
-        <v>52.07199356974633</v>
+        <v>52.0719935697463</v>
       </c>
       <c r="M13" t="n">
-        <v>105.8498513360774</v>
+        <v>105.8498513360773</v>
       </c>
       <c r="N13" t="n">
-        <v>159.6277091024084</v>
+        <v>159.6277091024083</v>
       </c>
       <c r="O13" t="n">
-        <v>203.3731629796094</v>
+        <v>203.3731629796093</v>
       </c>
       <c r="P13" t="n">
         <v>217.2842738033577</v>
@@ -5224,25 +5224,25 @@
         <v>107.5447415794397</v>
       </c>
       <c r="S13" t="n">
-        <v>52.67497546748066</v>
+        <v>65.43470306147063</v>
       </c>
       <c r="T13" t="n">
-        <v>4.345685476067155</v>
+        <v>65.43470306147063</v>
       </c>
       <c r="U13" t="n">
-        <v>4.345685476067155</v>
+        <v>65.43470306147063</v>
       </c>
       <c r="V13" t="n">
-        <v>4.345685476067155</v>
+        <v>65.43470306147063</v>
       </c>
       <c r="W13" t="n">
-        <v>4.345685476067155</v>
+        <v>65.43470306147063</v>
       </c>
       <c r="X13" t="n">
-        <v>4.345685476067155</v>
+        <v>65.43470306147063</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.345685476067155</v>
+        <v>65.43470306147063</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>217.2842738033577</v>
+        <v>114.0852176999852</v>
       </c>
       <c r="C14" t="n">
-        <v>217.2842738033577</v>
+        <v>114.0852176999852</v>
       </c>
       <c r="D14" t="n">
-        <v>217.2842738033577</v>
+        <v>114.0852176999852</v>
       </c>
       <c r="E14" t="n">
-        <v>217.2842738033577</v>
+        <v>114.0852176999852</v>
       </c>
       <c r="F14" t="n">
-        <v>162.4145076913987</v>
+        <v>114.0852176999852</v>
       </c>
       <c r="G14" t="n">
         <v>114.0852176999852</v>
@@ -5273,55 +5273,55 @@
         <v>59.21545158802618</v>
       </c>
       <c r="I14" t="n">
-        <v>4.345685476067155</v>
+        <v>4.345685476067154</v>
       </c>
       <c r="J14" t="n">
-        <v>18.4938821912879</v>
+        <v>18.49388219128791</v>
       </c>
       <c r="K14" t="n">
-        <v>18.4938821912879</v>
+        <v>72.27173995761893</v>
       </c>
       <c r="L14" t="n">
-        <v>32.78850507609724</v>
+        <v>126.04959772395</v>
       </c>
       <c r="M14" t="n">
-        <v>32.78850507609724</v>
+        <v>179.827455490281</v>
       </c>
       <c r="N14" t="n">
-        <v>86.56636284242828</v>
+        <v>179.827455490281</v>
       </c>
       <c r="O14" t="n">
-        <v>140.3442206087593</v>
+        <v>179.827455490281</v>
       </c>
       <c r="P14" t="n">
-        <v>194.1220783750904</v>
+        <v>217.2842738033577</v>
       </c>
       <c r="Q14" t="n">
         <v>217.2842738033577</v>
       </c>
       <c r="R14" t="n">
-        <v>217.2842738033577</v>
+        <v>162.4145076913987</v>
       </c>
       <c r="S14" t="n">
-        <v>217.2842738033577</v>
+        <v>114.0852176999852</v>
       </c>
       <c r="T14" t="n">
-        <v>217.2842738033577</v>
+        <v>114.0852176999852</v>
       </c>
       <c r="U14" t="n">
-        <v>217.2842738033577</v>
+        <v>114.0852176999852</v>
       </c>
       <c r="V14" t="n">
-        <v>217.2842738033577</v>
+        <v>114.0852176999852</v>
       </c>
       <c r="W14" t="n">
-        <v>217.2842738033577</v>
+        <v>114.0852176999852</v>
       </c>
       <c r="X14" t="n">
-        <v>217.2842738033577</v>
+        <v>114.0852176999852</v>
       </c>
       <c r="Y14" t="n">
-        <v>217.2842738033577</v>
+        <v>114.0852176999852</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>114.0852176999852</v>
+        <v>107.5447415794397</v>
       </c>
       <c r="C15" t="n">
-        <v>114.0852176999852</v>
+        <v>107.5447415794397</v>
       </c>
       <c r="D15" t="n">
-        <v>114.0852176999852</v>
+        <v>107.5447415794397</v>
       </c>
       <c r="E15" t="n">
-        <v>114.0852176999852</v>
+        <v>107.5447415794397</v>
       </c>
       <c r="F15" t="n">
-        <v>114.0852176999852</v>
+        <v>59.21545158802618</v>
       </c>
       <c r="G15" t="n">
-        <v>114.0852176999852</v>
+        <v>59.21545158802618</v>
       </c>
       <c r="H15" t="n">
         <v>59.21545158802618</v>
       </c>
       <c r="I15" t="n">
-        <v>4.345685476067155</v>
+        <v>4.345685476067154</v>
       </c>
       <c r="J15" t="n">
-        <v>19.07887483179882</v>
+        <v>4.345685476067154</v>
       </c>
       <c r="K15" t="n">
-        <v>72.85673259812987</v>
+        <v>58.12354324239818</v>
       </c>
       <c r="L15" t="n">
-        <v>126.6345903644609</v>
+        <v>109.7285582706956</v>
       </c>
       <c r="M15" t="n">
-        <v>180.4124481307919</v>
+        <v>109.7285582706956</v>
       </c>
       <c r="N15" t="n">
-        <v>217.2842738033577</v>
+        <v>109.7285582706956</v>
       </c>
       <c r="O15" t="n">
-        <v>217.2842738033577</v>
+        <v>109.7285582706956</v>
       </c>
       <c r="P15" t="n">
-        <v>217.2842738033577</v>
+        <v>163.5064160370267</v>
       </c>
       <c r="Q15" t="n">
         <v>217.2842738033577</v>
       </c>
       <c r="R15" t="n">
-        <v>217.2842738033577</v>
+        <v>162.4145076913987</v>
       </c>
       <c r="S15" t="n">
-        <v>217.2842738033577</v>
+        <v>107.5447415794397</v>
       </c>
       <c r="T15" t="n">
-        <v>168.9549838119442</v>
+        <v>107.5447415794397</v>
       </c>
       <c r="U15" t="n">
-        <v>168.9549838119442</v>
+        <v>107.5447415794397</v>
       </c>
       <c r="V15" t="n">
-        <v>168.9549838119442</v>
+        <v>107.5447415794397</v>
       </c>
       <c r="W15" t="n">
-        <v>168.9549838119442</v>
+        <v>107.5447415794397</v>
       </c>
       <c r="X15" t="n">
-        <v>114.0852176999852</v>
+        <v>107.5447415794397</v>
       </c>
       <c r="Y15" t="n">
-        <v>114.0852176999852</v>
+        <v>107.5447415794397</v>
       </c>
     </row>
     <row r="16">
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>217.2842738033577</v>
+        <v>120.3044691734297</v>
       </c>
       <c r="C16" t="n">
-        <v>217.2842738033577</v>
+        <v>65.43470306147063</v>
       </c>
       <c r="D16" t="n">
-        <v>217.2842738033577</v>
+        <v>10.5649369495116</v>
       </c>
       <c r="E16" t="n">
-        <v>217.2842738033577</v>
+        <v>10.5649369495116</v>
       </c>
       <c r="F16" t="n">
-        <v>217.2842738033577</v>
+        <v>10.5649369495116</v>
       </c>
       <c r="G16" t="n">
-        <v>162.4145076913987</v>
+        <v>10.5649369495116</v>
       </c>
       <c r="H16" t="n">
-        <v>114.0852176999852</v>
+        <v>10.5649369495116</v>
       </c>
       <c r="I16" t="n">
-        <v>59.21545158802618</v>
+        <v>10.5649369495116</v>
       </c>
       <c r="J16" t="n">
-        <v>4.345685476067155</v>
+        <v>10.5649369495116</v>
       </c>
       <c r="K16" t="n">
-        <v>4.345685476067155</v>
+        <v>4.345685476067154</v>
       </c>
       <c r="L16" t="n">
-        <v>52.0719935697463</v>
+        <v>52.07199356974628</v>
       </c>
       <c r="M16" t="n">
-        <v>105.8498513360774</v>
+        <v>105.8498513360773</v>
       </c>
       <c r="N16" t="n">
-        <v>159.6277091024084</v>
+        <v>159.6277091024083</v>
       </c>
       <c r="O16" t="n">
-        <v>203.3731629796094</v>
+        <v>203.3731629796093</v>
       </c>
       <c r="P16" t="n">
         <v>217.2842738033577</v>
@@ -5479,7 +5479,7 @@
         <v>217.2842738033577</v>
       </c>
       <c r="Y16" t="n">
-        <v>217.2842738033577</v>
+        <v>175.1742352853887</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.22835521414499</v>
+        <v>261.4177607072496</v>
       </c>
       <c r="C17" t="n">
-        <v>5.22835521414499</v>
+        <v>261.4177607072496</v>
       </c>
       <c r="D17" t="n">
-        <v>5.22835521414499</v>
+        <v>261.4177607072496</v>
       </c>
       <c r="E17" t="n">
-        <v>5.22835521414499</v>
+        <v>261.4177607072496</v>
       </c>
       <c r="F17" t="n">
-        <v>5.22835521414499</v>
+        <v>203.2721133256977</v>
       </c>
       <c r="G17" t="n">
-        <v>5.22835521414499</v>
+        <v>137.2575272885135</v>
       </c>
       <c r="H17" t="n">
-        <v>5.22835521414499</v>
+        <v>71.24294125132923</v>
       </c>
       <c r="I17" t="n">
-        <v>5.22835521414499</v>
+        <v>5.228355214144991</v>
       </c>
       <c r="J17" t="n">
-        <v>19.37655192936572</v>
+        <v>19.37655192936574</v>
       </c>
       <c r="K17" t="n">
-        <v>84.07744770440996</v>
+        <v>84.07744770441001</v>
       </c>
       <c r="L17" t="n">
-        <v>148.7783434794542</v>
+        <v>84.07744770441001</v>
       </c>
       <c r="M17" t="n">
-        <v>173.5546695039379</v>
+        <v>108.8537737288936</v>
       </c>
       <c r="N17" t="n">
         <v>173.5546695039379</v>
@@ -5534,31 +5534,31 @@
         <v>238.2555652789821</v>
       </c>
       <c r="Q17" t="n">
-        <v>261.4177607072495</v>
+        <v>261.4177607072496</v>
       </c>
       <c r="R17" t="n">
-        <v>203.2721133256976</v>
+        <v>261.4177607072496</v>
       </c>
       <c r="S17" t="n">
-        <v>137.2575272885134</v>
+        <v>261.4177607072496</v>
       </c>
       <c r="T17" t="n">
-        <v>71.2429412513292</v>
+        <v>261.4177607072496</v>
       </c>
       <c r="U17" t="n">
-        <v>5.22835521414499</v>
+        <v>261.4177607072496</v>
       </c>
       <c r="V17" t="n">
-        <v>5.22835521414499</v>
+        <v>261.4177607072496</v>
       </c>
       <c r="W17" t="n">
-        <v>5.22835521414499</v>
+        <v>261.4177607072496</v>
       </c>
       <c r="X17" t="n">
-        <v>5.22835521414499</v>
+        <v>261.4177607072496</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.22835521414499</v>
+        <v>261.4177607072496</v>
       </c>
     </row>
     <row r="18">
@@ -5568,40 +5568,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>261.4177607072495</v>
+        <v>5.228355214144991</v>
       </c>
       <c r="C18" t="n">
-        <v>261.4177607072495</v>
+        <v>5.228355214144991</v>
       </c>
       <c r="D18" t="n">
-        <v>261.4177607072495</v>
+        <v>5.228355214144991</v>
       </c>
       <c r="E18" t="n">
-        <v>203.2721133256976</v>
+        <v>5.228355214144991</v>
       </c>
       <c r="F18" t="n">
-        <v>137.2575272885134</v>
+        <v>5.228355214144991</v>
       </c>
       <c r="G18" t="n">
-        <v>71.2429412513292</v>
+        <v>5.228355214144991</v>
       </c>
       <c r="H18" t="n">
-        <v>71.2429412513292</v>
+        <v>5.228355214144991</v>
       </c>
       <c r="I18" t="n">
-        <v>5.22835521414499</v>
+        <v>5.228355214144991</v>
       </c>
       <c r="J18" t="n">
-        <v>19.96154456987665</v>
+        <v>5.228355214144991</v>
       </c>
       <c r="K18" t="n">
-        <v>84.6624403449209</v>
+        <v>69.92925098918926</v>
       </c>
       <c r="L18" t="n">
-        <v>84.6624403449209</v>
+        <v>69.92925098918926</v>
       </c>
       <c r="M18" t="n">
-        <v>84.6624403449209</v>
+        <v>69.92925098918926</v>
       </c>
       <c r="N18" t="n">
         <v>132.015969157161</v>
@@ -5610,34 +5610,34 @@
         <v>196.7168649322053</v>
       </c>
       <c r="P18" t="n">
-        <v>261.4177607072495</v>
+        <v>261.4177607072496</v>
       </c>
       <c r="Q18" t="n">
-        <v>261.4177607072495</v>
+        <v>261.4177607072496</v>
       </c>
       <c r="R18" t="n">
-        <v>261.4177607072495</v>
+        <v>261.4177607072496</v>
       </c>
       <c r="S18" t="n">
-        <v>261.4177607072495</v>
+        <v>203.2721133256977</v>
       </c>
       <c r="T18" t="n">
-        <v>261.4177607072495</v>
+        <v>137.2575272885135</v>
       </c>
       <c r="U18" t="n">
-        <v>261.4177607072495</v>
+        <v>71.24294125132923</v>
       </c>
       <c r="V18" t="n">
-        <v>261.4177607072495</v>
+        <v>5.228355214144991</v>
       </c>
       <c r="W18" t="n">
-        <v>261.4177607072495</v>
+        <v>5.228355214144991</v>
       </c>
       <c r="X18" t="n">
-        <v>261.4177607072495</v>
+        <v>5.228355214144991</v>
       </c>
       <c r="Y18" t="n">
-        <v>261.4177607072495</v>
+        <v>5.228355214144991</v>
       </c>
     </row>
     <row r="19">
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>103.9927749665677</v>
+        <v>37.97818892938349</v>
       </c>
       <c r="C19" t="n">
-        <v>71.2429412513292</v>
+        <v>5.228355214144991</v>
       </c>
       <c r="D19" t="n">
-        <v>5.22835521414499</v>
+        <v>5.228355214144991</v>
       </c>
       <c r="E19" t="n">
-        <v>5.22835521414499</v>
+        <v>5.228355214144991</v>
       </c>
       <c r="F19" t="n">
-        <v>5.22835521414499</v>
+        <v>5.228355214144991</v>
       </c>
       <c r="G19" t="n">
-        <v>5.22835521414499</v>
+        <v>5.228355214144991</v>
       </c>
       <c r="H19" t="n">
-        <v>5.22835521414499</v>
+        <v>5.228355214144991</v>
       </c>
       <c r="I19" t="n">
-        <v>5.22835521414499</v>
+        <v>5.228355214144991</v>
       </c>
       <c r="J19" t="n">
-        <v>5.22835521414499</v>
+        <v>5.228355214144991</v>
       </c>
       <c r="K19" t="n">
-        <v>5.22835521414499</v>
+        <v>5.228355214144991</v>
       </c>
       <c r="L19" t="n">
-        <v>52.95466330782411</v>
+        <v>52.95466330782412</v>
       </c>
       <c r="M19" t="n">
         <v>113.6644865649426</v>
       </c>
       <c r="N19" t="n">
-        <v>178.3653823399868</v>
+        <v>178.3653823399869</v>
       </c>
       <c r="O19" t="n">
         <v>222.1108362171878</v>
@@ -5701,7 +5701,7 @@
         <v>236.0219470409362</v>
       </c>
       <c r="T19" t="n">
-        <v>236.0219470409362</v>
+        <v>170.007361003752</v>
       </c>
       <c r="U19" t="n">
         <v>170.007361003752</v>
@@ -5710,13 +5710,13 @@
         <v>170.007361003752</v>
       </c>
       <c r="W19" t="n">
-        <v>170.007361003752</v>
+        <v>103.9927749665677</v>
       </c>
       <c r="X19" t="n">
-        <v>170.007361003752</v>
+        <v>37.97818892938349</v>
       </c>
       <c r="Y19" t="n">
-        <v>103.9927749665677</v>
+        <v>37.97818892938349</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>689.6434546929295</v>
+        <v>682.1724686419486</v>
       </c>
       <c r="C20" t="n">
-        <v>361.5497317985718</v>
+        <v>354.0787457475909</v>
       </c>
       <c r="D20" t="n">
-        <v>33.45600890421406</v>
+        <v>354.0787457475909</v>
       </c>
       <c r="E20" t="n">
-        <v>33.45600890421406</v>
+        <v>354.0787457475909</v>
       </c>
       <c r="F20" t="n">
-        <v>33.45600890421406</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="G20" t="n">
-        <v>33.45600890421406</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="H20" t="n">
-        <v>33.45600890421406</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="I20" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="J20" t="n">
-        <v>40.13321956845408</v>
+        <v>40.13321956845389</v>
       </c>
       <c r="K20" t="n">
-        <v>182.0825031506014</v>
+        <v>182.0825031506012</v>
       </c>
       <c r="L20" t="n">
-        <v>410.4597689907504</v>
+        <v>410.4597689907507</v>
       </c>
       <c r="M20" t="n">
-        <v>681.1800262990541</v>
+        <v>681.1800262990544</v>
       </c>
       <c r="N20" t="n">
-        <v>941.6488228541083</v>
+        <v>941.6488228541085</v>
       </c>
       <c r="O20" t="n">
         <v>1142.414483584908</v>
@@ -5774,28 +5774,28 @@
         <v>1299.251142661657</v>
       </c>
       <c r="R20" t="n">
-        <v>1167.485250909788</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="S20" t="n">
-        <v>1167.485250909788</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="T20" t="n">
-        <v>943.5029691644646</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="U20" t="n">
-        <v>689.6434546929295</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="V20" t="n">
-        <v>689.6434546929295</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="W20" t="n">
-        <v>689.6434546929295</v>
+        <v>1010.266191536306</v>
       </c>
       <c r="X20" t="n">
-        <v>689.6434546929295</v>
+        <v>682.1724686419486</v>
       </c>
       <c r="Y20" t="n">
-        <v>689.6434546929295</v>
+        <v>682.1724686419486</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>490.8538417973036</v>
+        <v>222.2871123872346</v>
       </c>
       <c r="C21" t="n">
-        <v>490.8538417973036</v>
+        <v>222.2871123872346</v>
       </c>
       <c r="D21" t="n">
-        <v>490.8538417973036</v>
+        <v>222.2871123872346</v>
       </c>
       <c r="E21" t="n">
-        <v>490.8538417973036</v>
+        <v>222.2871123872346</v>
       </c>
       <c r="F21" t="n">
-        <v>344.3192838241886</v>
+        <v>222.2871123872346</v>
       </c>
       <c r="G21" t="n">
         <v>222.2871123872346</v>
@@ -5826,28 +5826,28 @@
         <v>110.5317271721697</v>
       </c>
       <c r="I21" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="J21" t="n">
-        <v>40.7182122089648</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="K21" t="n">
-        <v>192.5204226005945</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="L21" t="n">
-        <v>458.0416243152752</v>
+        <v>64.18945725274182</v>
       </c>
       <c r="M21" t="n">
-        <v>779.6062821240351</v>
+        <v>385.7541150615019</v>
       </c>
       <c r="N21" t="n">
-        <v>797.6179434735138</v>
+        <v>707.3187728702619</v>
       </c>
       <c r="O21" t="n">
-        <v>1085.335503105925</v>
+        <v>995.0363325026726</v>
       </c>
       <c r="P21" t="n">
-        <v>1299.251142661657</v>
+        <v>1208.951972058405</v>
       </c>
       <c r="Q21" t="n">
         <v>1299.251142661657</v>
@@ -5856,25 +5856,25 @@
         <v>1208.455932170877</v>
       </c>
       <c r="S21" t="n">
-        <v>1208.455932170877</v>
+        <v>1038.142235599794</v>
       </c>
       <c r="T21" t="n">
-        <v>1208.455932170877</v>
+        <v>836.6291362341229</v>
       </c>
       <c r="U21" t="n">
-        <v>980.2433067572479</v>
+        <v>665.2907208245101</v>
       </c>
       <c r="V21" t="n">
-        <v>745.0911985255052</v>
+        <v>430.1386125927675</v>
       </c>
       <c r="W21" t="n">
-        <v>490.8538417973036</v>
+        <v>430.1386125927675</v>
       </c>
       <c r="X21" t="n">
-        <v>490.8538417973036</v>
+        <v>222.2871123872346</v>
       </c>
       <c r="Y21" t="n">
-        <v>490.8538417973036</v>
+        <v>222.2871123872346</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="C22" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="D22" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="E22" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="F22" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="G22" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="H22" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="I22" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="J22" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="K22" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="L22" t="n">
-        <v>73.71133094691226</v>
+        <v>73.71133094691227</v>
       </c>
       <c r="M22" t="n">
-        <v>134.4211542040307</v>
+        <v>134.4211542040308</v>
       </c>
       <c r="N22" t="n">
         <v>199.122049979075</v>
       </c>
       <c r="O22" t="n">
-        <v>242.8675038562759</v>
+        <v>242.867503856276</v>
       </c>
       <c r="P22" t="n">
-        <v>256.7786146800243</v>
+        <v>256.7786146800244</v>
       </c>
       <c r="Q22" t="n">
-        <v>256.7786146800243</v>
+        <v>256.7786146800244</v>
       </c>
       <c r="R22" t="n">
-        <v>256.7786146800243</v>
+        <v>83.99305573856049</v>
       </c>
       <c r="S22" t="n">
-        <v>256.7786146800243</v>
+        <v>83.99305573856049</v>
       </c>
       <c r="T22" t="n">
-        <v>27.12908420738978</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="U22" t="n">
-        <v>27.12908420738978</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="V22" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="W22" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="X22" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="Y22" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1010.266191536306</v>
+        <v>682.1724686419486</v>
       </c>
       <c r="C23" t="n">
-        <v>1010.266191536306</v>
+        <v>682.1724686419486</v>
       </c>
       <c r="D23" t="n">
-        <v>1010.266191536306</v>
+        <v>682.1724686419486</v>
       </c>
       <c r="E23" t="n">
         <v>682.1724686419486</v>
       </c>
       <c r="F23" t="n">
-        <v>682.1724686419486</v>
+        <v>354.0787457475909</v>
       </c>
       <c r="G23" t="n">
-        <v>354.0787457475909</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="H23" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="I23" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="J23" t="n">
-        <v>40.13321956845408</v>
+        <v>40.13321956845402</v>
       </c>
       <c r="K23" t="n">
-        <v>182.0825031506014</v>
+        <v>182.0825031506015</v>
       </c>
       <c r="L23" t="n">
-        <v>410.4597689907504</v>
+        <v>410.4597689907505</v>
       </c>
       <c r="M23" t="n">
         <v>681.1800262990541</v>
       </c>
       <c r="N23" t="n">
-        <v>941.6488228541083</v>
+        <v>941.6488228541084</v>
       </c>
       <c r="O23" t="n">
         <v>1142.414483584908</v>
@@ -6011,28 +6011,28 @@
         <v>1299.251142661657</v>
       </c>
       <c r="R23" t="n">
-        <v>1264.125706007841</v>
+        <v>1234.24847328163</v>
       </c>
       <c r="S23" t="n">
-        <v>1264.125706007841</v>
+        <v>1234.24847328163</v>
       </c>
       <c r="T23" t="n">
-        <v>1264.125706007841</v>
+        <v>1010.266191536306</v>
       </c>
       <c r="U23" t="n">
         <v>1010.266191536306</v>
       </c>
       <c r="V23" t="n">
-        <v>1010.266191536306</v>
+        <v>682.1724686419486</v>
       </c>
       <c r="W23" t="n">
-        <v>1010.266191536306</v>
+        <v>682.1724686419486</v>
       </c>
       <c r="X23" t="n">
-        <v>1010.266191536306</v>
+        <v>682.1724686419486</v>
       </c>
       <c r="Y23" t="n">
-        <v>1010.266191536306</v>
+        <v>682.1724686419486</v>
       </c>
     </row>
     <row r="24">
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>695.0628814630056</v>
+        <v>721.7624075109641</v>
       </c>
       <c r="C24" t="n">
-        <v>520.6098521818786</v>
+        <v>547.3093782298371</v>
       </c>
       <c r="D24" t="n">
-        <v>371.6754425206274</v>
+        <v>398.3749685685858</v>
       </c>
       <c r="E24" t="n">
-        <v>212.4379875151719</v>
+        <v>249.095461269828</v>
       </c>
       <c r="F24" t="n">
-        <v>137.740408068298</v>
+        <v>249.095461269828</v>
       </c>
       <c r="G24" t="n">
-        <v>137.740408068298</v>
+        <v>110.5317271721697</v>
       </c>
       <c r="H24" t="n">
-        <v>25.98502285323313</v>
+        <v>110.5317271721697</v>
       </c>
       <c r="I24" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="J24" t="n">
-        <v>40.7182122089648</v>
+        <v>40.71821220896481</v>
       </c>
       <c r="K24" t="n">
         <v>192.5204226005945</v>
@@ -6075,16 +6075,16 @@
         <v>458.0416243152752</v>
       </c>
       <c r="M24" t="n">
-        <v>779.6062821240351</v>
+        <v>673.4716746939125</v>
       </c>
       <c r="N24" t="n">
-        <v>1101.170939932795</v>
+        <v>995.0363325026726</v>
       </c>
       <c r="O24" t="n">
-        <v>1208.951972058404</v>
+        <v>995.0363325026726</v>
       </c>
       <c r="P24" t="n">
-        <v>1208.951972058404</v>
+        <v>1208.951972058405</v>
       </c>
       <c r="Q24" t="n">
         <v>1299.251142661657</v>
@@ -6096,22 +6096,22 @@
         <v>1299.251142661657</v>
       </c>
       <c r="T24" t="n">
-        <v>1299.251142661657</v>
+        <v>1097.738043295986</v>
       </c>
       <c r="U24" t="n">
-        <v>1071.038517248028</v>
+        <v>1097.738043295986</v>
       </c>
       <c r="V24" t="n">
-        <v>1071.038517248028</v>
+        <v>1097.738043295986</v>
       </c>
       <c r="W24" t="n">
-        <v>1071.038517248028</v>
+        <v>1097.738043295986</v>
       </c>
       <c r="X24" t="n">
-        <v>1071.038517248028</v>
+        <v>1097.738043295986</v>
       </c>
       <c r="Y24" t="n">
-        <v>863.2782184830737</v>
+        <v>889.9777445310322</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="C25" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="D25" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="E25" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="F25" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="G25" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="H25" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="I25" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="J25" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="K25" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="L25" t="n">
-        <v>73.71133094691226</v>
+        <v>73.71133094691227</v>
       </c>
       <c r="M25" t="n">
-        <v>134.4211542040307</v>
+        <v>134.4211542040308</v>
       </c>
       <c r="N25" t="n">
         <v>199.122049979075</v>
       </c>
       <c r="O25" t="n">
-        <v>242.8675038562759</v>
+        <v>242.867503856276</v>
       </c>
       <c r="P25" t="n">
-        <v>256.7786146800243</v>
+        <v>256.7786146800244</v>
       </c>
       <c r="Q25" t="n">
-        <v>181.4763515465673</v>
+        <v>256.7786146800244</v>
       </c>
       <c r="R25" t="n">
-        <v>25.98502285323313</v>
+        <v>256.7786146800244</v>
       </c>
       <c r="S25" t="n">
-        <v>25.98502285323313</v>
+        <v>32.9405004306341</v>
       </c>
       <c r="T25" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="U25" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="V25" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="W25" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="X25" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
       <c r="Y25" t="n">
-        <v>25.98502285323313</v>
+        <v>25.98502285323314</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>354.0787457475909</v>
+        <v>419.0814151276174</v>
       </c>
       <c r="C26" t="n">
-        <v>354.0787457475909</v>
+        <v>419.0814151276174</v>
       </c>
       <c r="D26" t="n">
-        <v>354.0787457475909</v>
+        <v>419.0814151276174</v>
       </c>
       <c r="E26" t="n">
-        <v>25.98502285323313</v>
+        <v>90.98769223325974</v>
       </c>
       <c r="F26" t="n">
         <v>25.98502285323313</v>
@@ -6224,7 +6224,7 @@
         <v>25.98502285323313</v>
       </c>
       <c r="J26" t="n">
-        <v>40.1332195684538</v>
+        <v>40.13321956845388</v>
       </c>
       <c r="K26" t="n">
         <v>182.0825031506012</v>
@@ -6233,10 +6233,10 @@
         <v>410.4597689907503</v>
       </c>
       <c r="M26" t="n">
-        <v>681.1800262990539</v>
+        <v>681.1800262990541</v>
       </c>
       <c r="N26" t="n">
-        <v>941.6488228541082</v>
+        <v>941.6488228541083</v>
       </c>
       <c r="O26" t="n">
         <v>1142.414483584908</v>
@@ -6248,28 +6248,28 @@
         <v>1299.251142661657</v>
       </c>
       <c r="R26" t="n">
-        <v>1167.485250909788</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="S26" t="n">
-        <v>963.470237153725</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="T26" t="n">
-        <v>739.4879554084011</v>
+        <v>1075.268860916333</v>
       </c>
       <c r="U26" t="n">
-        <v>682.1724686419486</v>
+        <v>1075.268860916333</v>
       </c>
       <c r="V26" t="n">
-        <v>354.0787457475909</v>
+        <v>1075.268860916333</v>
       </c>
       <c r="W26" t="n">
-        <v>354.0787457475909</v>
+        <v>747.1751380219752</v>
       </c>
       <c r="X26" t="n">
-        <v>354.0787457475909</v>
+        <v>419.0814151276174</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.0787457475909</v>
+        <v>419.0814151276174</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>110.5317271721697</v>
+        <v>349.3724617956115</v>
       </c>
       <c r="C27" t="n">
-        <v>110.5317271721697</v>
+        <v>174.9194325144844</v>
       </c>
       <c r="D27" t="n">
-        <v>110.5317271721697</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="E27" t="n">
-        <v>110.5317271721697</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="F27" t="n">
-        <v>110.5317271721697</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="G27" t="n">
-        <v>110.5317271721697</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="H27" t="n">
-        <v>110.5317271721697</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="I27" t="n">
         <v>25.98502285323313</v>
@@ -6306,49 +6306,49 @@
         <v>40.7182122089648</v>
       </c>
       <c r="K27" t="n">
-        <v>40.7182122089648</v>
+        <v>192.5204226005945</v>
       </c>
       <c r="L27" t="n">
-        <v>306.2394139236455</v>
+        <v>458.0416243152752</v>
       </c>
       <c r="M27" t="n">
-        <v>627.8040717324054</v>
+        <v>779.6062821240351</v>
       </c>
       <c r="N27" t="n">
-        <v>949.3687295411654</v>
+        <v>995.0363325026724</v>
       </c>
       <c r="O27" t="n">
-        <v>1237.086289173576</v>
+        <v>995.0363325026724</v>
       </c>
       <c r="P27" t="n">
-        <v>1299.251142661657</v>
+        <v>1208.951972058404</v>
       </c>
       <c r="Q27" t="n">
         <v>1299.251142661657</v>
       </c>
       <c r="R27" t="n">
-        <v>1208.455932170877</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="S27" t="n">
-        <v>1038.142235599794</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="T27" t="n">
-        <v>1038.142235599794</v>
+        <v>1097.738043295986</v>
       </c>
       <c r="U27" t="n">
-        <v>809.9296101861646</v>
+        <v>1097.738043295986</v>
       </c>
       <c r="V27" t="n">
-        <v>574.777501954422</v>
+        <v>1097.738043295986</v>
       </c>
       <c r="W27" t="n">
-        <v>320.5401452262203</v>
+        <v>843.5006865677842</v>
       </c>
       <c r="X27" t="n">
-        <v>320.5401452262203</v>
+        <v>725.3480975806333</v>
       </c>
       <c r="Y27" t="n">
-        <v>112.7798464612664</v>
+        <v>517.5877988156794</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>25.98502285323313</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="C28" t="n">
-        <v>25.98502285323313</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="D28" t="n">
-        <v>25.98502285323313</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="E28" t="n">
-        <v>25.98502285323313</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="F28" t="n">
-        <v>25.98502285323313</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="G28" t="n">
-        <v>25.98502285323313</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="H28" t="n">
-        <v>25.98502285323313</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="I28" t="n">
-        <v>25.98502285323313</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="J28" t="n">
-        <v>25.98502285323313</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="K28" t="n">
-        <v>25.98502285323313</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="L28" t="n">
-        <v>73.71133094691226</v>
+        <v>1116.183858928544</v>
       </c>
       <c r="M28" t="n">
-        <v>134.4211542040308</v>
+        <v>1176.893682185663</v>
       </c>
       <c r="N28" t="n">
-        <v>199.122049979075</v>
+        <v>1241.594577960707</v>
       </c>
       <c r="O28" t="n">
-        <v>242.867503856276</v>
+        <v>1285.340031837908</v>
       </c>
       <c r="P28" t="n">
-        <v>256.7786146800244</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="Q28" t="n">
-        <v>256.7786146800244</v>
+        <v>1241.243109776329</v>
       </c>
       <c r="R28" t="n">
-        <v>256.7786146800244</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="S28" t="n">
-        <v>256.7786146800244</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="T28" t="n">
-        <v>256.7786146800244</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="U28" t="n">
-        <v>256.7786146800244</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="V28" t="n">
-        <v>256.7786146800244</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="W28" t="n">
-        <v>25.98502285323313</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="X28" t="n">
-        <v>25.98502285323313</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="Y28" t="n">
-        <v>25.98502285323313</v>
+        <v>1068.457550834865</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>717.2979052957638</v>
+        <v>767.1424060112355</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2041824014061</v>
+        <v>767.1424060112355</v>
       </c>
       <c r="D29" t="n">
-        <v>389.2041824014061</v>
+        <v>767.1424060112355</v>
       </c>
       <c r="E29" t="n">
-        <v>389.2041824014061</v>
+        <v>439.0486831168778</v>
       </c>
       <c r="F29" t="n">
-        <v>389.2041824014061</v>
+        <v>439.0486831168778</v>
       </c>
       <c r="G29" t="n">
-        <v>389.2041824014061</v>
+        <v>439.0486831168778</v>
       </c>
       <c r="H29" t="n">
         <v>226.5472675941909</v>
@@ -6461,7 +6461,7 @@
         <v>25.98502285323313</v>
       </c>
       <c r="J29" t="n">
-        <v>40.13321956845388</v>
+        <v>40.1332195684538</v>
       </c>
       <c r="K29" t="n">
         <v>182.0825031506012</v>
@@ -6488,25 +6488,25 @@
         <v>1299.251142661657</v>
       </c>
       <c r="S29" t="n">
-        <v>1299.251142661657</v>
+        <v>1095.236128905593</v>
       </c>
       <c r="T29" t="n">
-        <v>1299.251142661657</v>
+        <v>1095.236128905593</v>
       </c>
       <c r="U29" t="n">
-        <v>1045.391628190122</v>
+        <v>1095.236128905593</v>
       </c>
       <c r="V29" t="n">
-        <v>1045.391628190122</v>
+        <v>1095.236128905593</v>
       </c>
       <c r="W29" t="n">
-        <v>1045.391628190122</v>
+        <v>767.1424060112355</v>
       </c>
       <c r="X29" t="n">
-        <v>1045.391628190122</v>
+        <v>767.1424060112355</v>
       </c>
       <c r="Y29" t="n">
-        <v>717.2979052957638</v>
+        <v>767.1424060112355</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>200.4380521343601</v>
+        <v>331.7570358318036</v>
       </c>
       <c r="C30" t="n">
-        <v>25.98502285323313</v>
+        <v>331.7570358318036</v>
       </c>
       <c r="D30" t="n">
-        <v>25.98502285323313</v>
+        <v>331.7570358318036</v>
       </c>
       <c r="E30" t="n">
-        <v>25.98502285323313</v>
+        <v>172.5195808263481</v>
       </c>
       <c r="F30" t="n">
         <v>25.98502285323313</v>
@@ -6543,22 +6543,22 @@
         <v>40.7182122089648</v>
       </c>
       <c r="K30" t="n">
-        <v>40.7182122089648</v>
+        <v>192.5204226005945</v>
       </c>
       <c r="L30" t="n">
-        <v>64.1894572527417</v>
+        <v>192.5204226005945</v>
       </c>
       <c r="M30" t="n">
-        <v>385.7541150615017</v>
+        <v>514.0850804093545</v>
       </c>
       <c r="N30" t="n">
-        <v>707.3187728702617</v>
+        <v>835.6497382181145</v>
       </c>
       <c r="O30" t="n">
-        <v>995.0363325026724</v>
+        <v>1085.335503105925</v>
       </c>
       <c r="P30" t="n">
-        <v>1208.951972058404</v>
+        <v>1299.251142661657</v>
       </c>
       <c r="Q30" t="n">
         <v>1299.251142661657</v>
@@ -6567,25 +6567,25 @@
         <v>1208.455932170877</v>
       </c>
       <c r="S30" t="n">
-        <v>1208.455932170877</v>
+        <v>1038.142235599794</v>
       </c>
       <c r="T30" t="n">
-        <v>1006.942832805206</v>
+        <v>1022.058518179167</v>
       </c>
       <c r="U30" t="n">
-        <v>778.730207391577</v>
+        <v>793.8458927655381</v>
       </c>
       <c r="V30" t="n">
-        <v>543.5780991598342</v>
+        <v>793.8458927655381</v>
       </c>
       <c r="W30" t="n">
-        <v>289.3407424316326</v>
+        <v>539.6085360373365</v>
       </c>
       <c r="X30" t="n">
-        <v>200.4380521343601</v>
+        <v>331.7570358318036</v>
       </c>
       <c r="Y30" t="n">
-        <v>200.4380521343601</v>
+        <v>331.7570358318036</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1299.251142661657</v>
+        <v>1117.602677831417</v>
       </c>
       <c r="C31" t="n">
-        <v>1299.251142661657</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="D31" t="n">
-        <v>1299.251142661657</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="E31" t="n">
-        <v>1299.251142661657</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="F31" t="n">
-        <v>1152.361195163746</v>
+        <v>1068.457550834865</v>
       </c>
       <c r="G31" t="n">
         <v>1068.457550834865</v>
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>971.1574197672988</v>
+        <v>354.0787457475909</v>
       </c>
       <c r="C32" t="n">
-        <v>682.1724686419486</v>
+        <v>354.0787457475909</v>
       </c>
       <c r="D32" t="n">
         <v>354.0787457475909</v>
       </c>
       <c r="E32" t="n">
-        <v>25.98502285323313</v>
+        <v>354.0787457475909</v>
       </c>
       <c r="F32" t="n">
         <v>25.98502285323313</v>
@@ -6698,19 +6698,19 @@
         <v>25.98502285323313</v>
       </c>
       <c r="J32" t="n">
-        <v>40.13321956845405</v>
+        <v>40.13321956845388</v>
       </c>
       <c r="K32" t="n">
-        <v>182.0825031506014</v>
+        <v>182.0825031506012</v>
       </c>
       <c r="L32" t="n">
-        <v>410.4597689907504</v>
+        <v>410.4597689907503</v>
       </c>
       <c r="M32" t="n">
-        <v>681.1800262990541</v>
+        <v>681.1800262990539</v>
       </c>
       <c r="N32" t="n">
-        <v>941.6488228541083</v>
+        <v>941.6488228541082</v>
       </c>
       <c r="O32" t="n">
         <v>1142.414483584908</v>
@@ -6731,19 +6731,19 @@
         <v>1299.251142661657</v>
       </c>
       <c r="U32" t="n">
-        <v>1299.251142661657</v>
+        <v>1045.391628190122</v>
       </c>
       <c r="V32" t="n">
-        <v>1299.251142661657</v>
+        <v>717.2979052957638</v>
       </c>
       <c r="W32" t="n">
-        <v>1299.251142661657</v>
+        <v>682.1724686419486</v>
       </c>
       <c r="X32" t="n">
-        <v>1299.251142661657</v>
+        <v>354.0787457475909</v>
       </c>
       <c r="Y32" t="n">
-        <v>971.1574197672988</v>
+        <v>354.0787457475909</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>609.9946264525388</v>
+        <v>815.5572691247146</v>
       </c>
       <c r="C33" t="n">
-        <v>435.5415971714118</v>
+        <v>815.5572691247146</v>
       </c>
       <c r="D33" t="n">
-        <v>435.5415971714118</v>
+        <v>666.6228594634633</v>
       </c>
       <c r="E33" t="n">
-        <v>276.3041421659563</v>
+        <v>507.3854044580079</v>
       </c>
       <c r="F33" t="n">
-        <v>276.3041421659563</v>
+        <v>360.8508464848929</v>
       </c>
       <c r="G33" t="n">
-        <v>137.740408068298</v>
+        <v>222.2871123872346</v>
       </c>
       <c r="H33" t="n">
-        <v>25.98502285323313</v>
+        <v>110.5317271721697</v>
       </c>
       <c r="I33" t="n">
         <v>25.98502285323313</v>
       </c>
       <c r="J33" t="n">
-        <v>40.7182122089648</v>
+        <v>25.98502285323313</v>
       </c>
       <c r="K33" t="n">
-        <v>40.7182122089648</v>
+        <v>177.7872332448628</v>
       </c>
       <c r="L33" t="n">
-        <v>306.2394139236455</v>
+        <v>177.7872332448628</v>
       </c>
       <c r="M33" t="n">
-        <v>627.8040717324054</v>
+        <v>385.7541150615017</v>
       </c>
       <c r="N33" t="n">
-        <v>949.3687295411654</v>
+        <v>707.3187728702617</v>
       </c>
       <c r="O33" t="n">
-        <v>1237.086289173576</v>
+        <v>995.0363325026724</v>
       </c>
       <c r="P33" t="n">
-        <v>1299.251142661657</v>
+        <v>1208.951972058404</v>
       </c>
       <c r="Q33" t="n">
         <v>1299.251142661657</v>
@@ -6804,25 +6804,25 @@
         <v>1208.455932170877</v>
       </c>
       <c r="S33" t="n">
-        <v>1193.821762443094</v>
+        <v>1050.709377356457</v>
       </c>
       <c r="T33" t="n">
-        <v>1193.821762443094</v>
+        <v>1050.709377356457</v>
       </c>
       <c r="U33" t="n">
-        <v>1193.821762443094</v>
+        <v>1050.709377356457</v>
       </c>
       <c r="V33" t="n">
-        <v>1193.821762443094</v>
+        <v>815.5572691247146</v>
       </c>
       <c r="W33" t="n">
-        <v>1193.821762443094</v>
+        <v>815.5572691247146</v>
       </c>
       <c r="X33" t="n">
-        <v>985.9702622375607</v>
+        <v>815.5572691247146</v>
       </c>
       <c r="Y33" t="n">
-        <v>778.2099634726069</v>
+        <v>815.5572691247146</v>
       </c>
     </row>
     <row r="34">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>535.5189552935012</v>
+        <v>294.8632941595647</v>
       </c>
       <c r="C35" t="n">
-        <v>535.5189552935012</v>
+        <v>294.8632941595647</v>
       </c>
       <c r="D35" t="n">
-        <v>535.5189552935012</v>
+        <v>294.8632941595647</v>
       </c>
       <c r="E35" t="n">
         <v>294.8632941595647</v>
       </c>
       <c r="F35" t="n">
-        <v>21.63933737716598</v>
+        <v>294.8632941595647</v>
       </c>
       <c r="G35" t="n">
-        <v>21.63933737716598</v>
+        <v>294.8632941595647</v>
       </c>
       <c r="H35" t="n">
         <v>21.63933737716598</v>
@@ -6938,16 +6938,16 @@
         <v>35.78753409238673</v>
       </c>
       <c r="K35" t="n">
-        <v>101.4061502615995</v>
+        <v>177.7368176745341</v>
       </c>
       <c r="L35" t="n">
-        <v>329.7834161017486</v>
+        <v>406.1140835146831</v>
       </c>
       <c r="M35" t="n">
-        <v>597.5702161441775</v>
+        <v>673.900883557112</v>
       </c>
       <c r="N35" t="n">
-        <v>858.0390126992316</v>
+        <v>934.3696801121662</v>
       </c>
       <c r="O35" t="n">
         <v>1058.804673430031</v>
@@ -6959,28 +6959,28 @@
         <v>1081.966868858299</v>
       </c>
       <c r="R35" t="n">
-        <v>1081.966868858299</v>
+        <v>950.2009771064306</v>
       </c>
       <c r="S35" t="n">
-        <v>1081.966868858299</v>
+        <v>746.1859633503672</v>
       </c>
       <c r="T35" t="n">
-        <v>1081.966868858299</v>
+        <v>568.0872509419635</v>
       </c>
       <c r="U35" t="n">
-        <v>1081.966868858299</v>
+        <v>568.0872509419635</v>
       </c>
       <c r="V35" t="n">
-        <v>808.7429120759</v>
+        <v>568.0872509419635</v>
       </c>
       <c r="W35" t="n">
-        <v>535.5189552935012</v>
+        <v>568.0872509419635</v>
       </c>
       <c r="X35" t="n">
-        <v>535.5189552935012</v>
+        <v>294.8632941595647</v>
       </c>
       <c r="Y35" t="n">
-        <v>535.5189552935012</v>
+        <v>294.8632941595647</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>619.3448624307649</v>
+        <v>621.4432219817802</v>
       </c>
       <c r="C36" t="n">
-        <v>614.9094941146461</v>
+        <v>446.9901927006532</v>
       </c>
       <c r="D36" t="n">
-        <v>465.9750844533948</v>
+        <v>298.0557830394019</v>
       </c>
       <c r="E36" t="n">
-        <v>306.7376294479393</v>
+        <v>279.9292805653458</v>
       </c>
       <c r="F36" t="n">
-        <v>160.2030714748243</v>
+        <v>133.3947225922308</v>
       </c>
       <c r="G36" t="n">
-        <v>21.63933737716598</v>
+        <v>133.3947225922308</v>
       </c>
       <c r="H36" t="n">
         <v>21.63933737716598</v>
@@ -7041,25 +7041,25 @@
         <v>991.1716583675191</v>
       </c>
       <c r="S36" t="n">
-        <v>820.8579617964358</v>
+        <v>991.1716583675191</v>
       </c>
       <c r="T36" t="n">
-        <v>619.3448624307649</v>
+        <v>789.6585590018482</v>
       </c>
       <c r="U36" t="n">
-        <v>619.3448624307649</v>
+        <v>789.6585590018482</v>
       </c>
       <c r="V36" t="n">
-        <v>619.3448624307649</v>
+        <v>789.6585590018482</v>
       </c>
       <c r="W36" t="n">
-        <v>619.3448624307649</v>
+        <v>789.6585590018482</v>
       </c>
       <c r="X36" t="n">
-        <v>619.3448624307649</v>
+        <v>789.6585590018482</v>
       </c>
       <c r="Y36" t="n">
-        <v>619.3448624307649</v>
+        <v>789.6585590018482</v>
       </c>
     </row>
     <row r="37">
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21.63933737716598</v>
+        <v>22.78339873132268</v>
       </c>
       <c r="C37" t="n">
-        <v>21.63933737716598</v>
+        <v>22.78339873132268</v>
       </c>
       <c r="D37" t="n">
-        <v>21.63933737716598</v>
+        <v>22.78339873132268</v>
       </c>
       <c r="E37" t="n">
         <v>21.63933737716598</v>
@@ -7114,31 +7114,31 @@
         <v>252.4329292039572</v>
       </c>
       <c r="Q37" t="n">
-        <v>177.1306660705002</v>
+        <v>252.4329292039572</v>
       </c>
       <c r="R37" t="n">
-        <v>21.63933737716598</v>
+        <v>252.4329292039572</v>
       </c>
       <c r="S37" t="n">
-        <v>21.63933737716598</v>
+        <v>252.4329292039572</v>
       </c>
       <c r="T37" t="n">
-        <v>21.63933737716598</v>
+        <v>22.78339873132268</v>
       </c>
       <c r="U37" t="n">
-        <v>21.63933737716598</v>
+        <v>22.78339873132268</v>
       </c>
       <c r="V37" t="n">
-        <v>21.63933737716598</v>
+        <v>22.78339873132268</v>
       </c>
       <c r="W37" t="n">
-        <v>21.63933737716598</v>
+        <v>22.78339873132268</v>
       </c>
       <c r="X37" t="n">
-        <v>21.63933737716598</v>
+        <v>22.78339873132268</v>
       </c>
       <c r="Y37" t="n">
-        <v>21.63933737716598</v>
+        <v>22.78339873132268</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1081.966868858299</v>
+        <v>21.63933737716598</v>
       </c>
       <c r="C38" t="n">
-        <v>1081.966868858299</v>
+        <v>21.63933737716598</v>
       </c>
       <c r="D38" t="n">
-        <v>1081.966868858299</v>
+        <v>21.63933737716598</v>
       </c>
       <c r="E38" t="n">
-        <v>1041.87345246532</v>
+        <v>21.63933737716598</v>
       </c>
       <c r="F38" t="n">
-        <v>768.6494956829213</v>
+        <v>21.63933737716598</v>
       </c>
       <c r="G38" t="n">
-        <v>495.4255389005225</v>
+        <v>21.63933737716598</v>
       </c>
       <c r="H38" t="n">
-        <v>222.2015821181238</v>
+        <v>21.63933737716598</v>
       </c>
       <c r="I38" t="n">
         <v>21.63933737716598</v>
@@ -7178,13 +7178,13 @@
         <v>177.7368176745341</v>
       </c>
       <c r="L38" t="n">
-        <v>196.1089524532674</v>
+        <v>406.1140835146831</v>
       </c>
       <c r="M38" t="n">
-        <v>463.8957524956963</v>
+        <v>673.900883557112</v>
       </c>
       <c r="N38" t="n">
-        <v>724.3645490507505</v>
+        <v>925.1302097815503</v>
       </c>
       <c r="O38" t="n">
         <v>925.1302097815503</v>
@@ -7196,28 +7196,28 @@
         <v>1081.966868858299</v>
       </c>
       <c r="R38" t="n">
-        <v>1081.966868858299</v>
+        <v>950.2009771064306</v>
       </c>
       <c r="S38" t="n">
-        <v>1081.966868858299</v>
+        <v>950.2009771064306</v>
       </c>
       <c r="T38" t="n">
-        <v>1081.966868858299</v>
+        <v>950.2009771064306</v>
       </c>
       <c r="U38" t="n">
-        <v>1081.966868858299</v>
+        <v>696.3414626348955</v>
       </c>
       <c r="V38" t="n">
-        <v>1081.966868858299</v>
+        <v>423.1175058524968</v>
       </c>
       <c r="W38" t="n">
-        <v>1081.966868858299</v>
+        <v>149.8935490700981</v>
       </c>
       <c r="X38" t="n">
-        <v>1081.966868858299</v>
+        <v>149.8935490700981</v>
       </c>
       <c r="Y38" t="n">
-        <v>1081.966868858299</v>
+        <v>149.8935490700981</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>21.63933737716598</v>
+        <v>345.0267763195443</v>
       </c>
       <c r="C39" t="n">
-        <v>21.63933737716598</v>
+        <v>170.5737470384173</v>
       </c>
       <c r="D39" t="n">
         <v>21.63933737716598</v>
@@ -7254,49 +7254,49 @@
         <v>36.37252673289765</v>
       </c>
       <c r="K39" t="n">
-        <v>188.1747371245274</v>
+        <v>36.37252673289765</v>
       </c>
       <c r="L39" t="n">
-        <v>453.695938839208</v>
+        <v>301.8937284475783</v>
       </c>
       <c r="M39" t="n">
-        <v>721.4827388816369</v>
+        <v>569.6805284900072</v>
       </c>
       <c r="N39" t="n">
-        <v>989.2695389240658</v>
+        <v>723.8808982126177</v>
       </c>
       <c r="O39" t="n">
-        <v>1081.966868858299</v>
+        <v>991.6676982550466</v>
       </c>
       <c r="P39" t="n">
-        <v>1081.966868858299</v>
+        <v>991.6676982550466</v>
       </c>
       <c r="Q39" t="n">
         <v>1081.966868858299</v>
       </c>
       <c r="R39" t="n">
-        <v>1081.966868858299</v>
+        <v>991.1716583675191</v>
       </c>
       <c r="S39" t="n">
-        <v>1081.966868858299</v>
+        <v>991.1716583675191</v>
       </c>
       <c r="T39" t="n">
-        <v>880.4537694926279</v>
+        <v>991.1716583675191</v>
       </c>
       <c r="U39" t="n">
-        <v>672.4032445793955</v>
+        <v>991.1716583675191</v>
       </c>
       <c r="V39" t="n">
-        <v>437.2511363476527</v>
+        <v>991.1716583675191</v>
       </c>
       <c r="W39" t="n">
-        <v>437.2511363476527</v>
+        <v>928.8539123100991</v>
       </c>
       <c r="X39" t="n">
-        <v>229.3996361421199</v>
+        <v>721.0024121045662</v>
       </c>
       <c r="Y39" t="n">
-        <v>21.63933737716598</v>
+        <v>513.2421133396124</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>851.1732770315074</v>
+        <v>1081.966868858299</v>
       </c>
       <c r="C40" t="n">
-        <v>851.1732770315074</v>
+        <v>1081.966868858299</v>
       </c>
       <c r="D40" t="n">
-        <v>851.1732770315074</v>
+        <v>1081.966868858299</v>
       </c>
       <c r="E40" t="n">
-        <v>851.1732770315074</v>
+        <v>934.0537752759057</v>
       </c>
       <c r="F40" t="n">
         <v>851.1732770315074</v>
@@ -7363,19 +7363,19 @@
         <v>1081.966868858299</v>
       </c>
       <c r="U40" t="n">
-        <v>851.1732770315074</v>
+        <v>1081.966868858299</v>
       </c>
       <c r="V40" t="n">
-        <v>851.1732770315074</v>
+        <v>1081.966868858299</v>
       </c>
       <c r="W40" t="n">
-        <v>851.1732770315074</v>
+        <v>1081.966868858299</v>
       </c>
       <c r="X40" t="n">
-        <v>851.1732770315074</v>
+        <v>1081.966868858299</v>
       </c>
       <c r="Y40" t="n">
-        <v>851.1732770315074</v>
+        <v>1081.966868858299</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>643.9883533453653</v>
+        <v>702.0524764464757</v>
       </c>
       <c r="C41" t="n">
-        <v>643.9883533453653</v>
+        <v>702.0524764464757</v>
       </c>
       <c r="D41" t="n">
-        <v>381.9092164881918</v>
+        <v>702.0524764464757</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9092164881918</v>
+        <v>702.0524764464757</v>
       </c>
       <c r="F41" t="n">
-        <v>381.9092164881918</v>
+        <v>439.9733395893021</v>
       </c>
       <c r="G41" t="n">
-        <v>381.9092164881918</v>
+        <v>177.8942027321285</v>
       </c>
       <c r="H41" t="n">
-        <v>221.3189123800459</v>
+        <v>177.8942027321285</v>
       </c>
       <c r="I41" t="n">
-        <v>20.75666763908814</v>
+        <v>20.75666763908815</v>
       </c>
       <c r="J41" t="n">
-        <v>20.75666763908814</v>
+        <v>20.75666763908815</v>
       </c>
       <c r="K41" t="n">
-        <v>162.7059512212355</v>
+        <v>71.80073588775943</v>
       </c>
       <c r="L41" t="n">
-        <v>391.0832170613845</v>
+        <v>300.1780017279085</v>
       </c>
       <c r="M41" t="n">
-        <v>624.1329608439428</v>
+        <v>557.0417637616242</v>
       </c>
       <c r="N41" t="n">
-        <v>880.9967228776586</v>
+        <v>813.9055257953401</v>
       </c>
       <c r="O41" t="n">
-        <v>880.9967228776586</v>
+        <v>1014.67118652614</v>
       </c>
       <c r="P41" t="n">
         <v>1014.67118652614</v>
@@ -7433,28 +7433,28 @@
         <v>1037.833381954407</v>
       </c>
       <c r="R41" t="n">
-        <v>906.0674902025389</v>
+        <v>906.0674902025391</v>
       </c>
       <c r="S41" t="n">
-        <v>906.0674902025389</v>
+        <v>702.0524764464757</v>
       </c>
       <c r="T41" t="n">
-        <v>906.0674902025389</v>
+        <v>702.0524764464757</v>
       </c>
       <c r="U41" t="n">
-        <v>906.0674902025389</v>
+        <v>702.0524764464757</v>
       </c>
       <c r="V41" t="n">
-        <v>643.9883533453653</v>
+        <v>702.0524764464757</v>
       </c>
       <c r="W41" t="n">
-        <v>643.9883533453653</v>
+        <v>702.0524764464757</v>
       </c>
       <c r="X41" t="n">
-        <v>643.9883533453653</v>
+        <v>702.0524764464757</v>
       </c>
       <c r="Y41" t="n">
-        <v>643.9883533453653</v>
+        <v>702.0524764464757</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>118.7181922151628</v>
+        <v>20.75666763908815</v>
       </c>
       <c r="C42" t="n">
-        <v>118.7181922151628</v>
+        <v>20.75666763908815</v>
       </c>
       <c r="D42" t="n">
-        <v>118.7181922151628</v>
+        <v>20.75666763908815</v>
       </c>
       <c r="E42" t="n">
-        <v>118.7181922151628</v>
+        <v>20.75666763908815</v>
       </c>
       <c r="F42" t="n">
-        <v>118.7181922151628</v>
+        <v>20.75666763908815</v>
       </c>
       <c r="G42" t="n">
-        <v>20.75666763908814</v>
+        <v>20.75666763908815</v>
       </c>
       <c r="H42" t="n">
-        <v>20.75666763908814</v>
+        <v>20.75666763908815</v>
       </c>
       <c r="I42" t="n">
-        <v>20.75666763908814</v>
+        <v>20.75666763908815</v>
       </c>
       <c r="J42" t="n">
         <v>35.48985699481982</v>
       </c>
       <c r="K42" t="n">
-        <v>35.48985699481982</v>
+        <v>187.2920673864495</v>
       </c>
       <c r="L42" t="n">
-        <v>35.48985699481982</v>
+        <v>187.2920673864495</v>
       </c>
       <c r="M42" t="n">
-        <v>292.3536190285356</v>
+        <v>444.1558294201653</v>
       </c>
       <c r="N42" t="n">
-        <v>476.7548097617071</v>
+        <v>690.6704493174393</v>
       </c>
       <c r="O42" t="n">
-        <v>733.6185717954229</v>
+        <v>947.5342113511551</v>
       </c>
       <c r="P42" t="n">
-        <v>947.5342113511549</v>
+        <v>947.5342113511551</v>
       </c>
       <c r="Q42" t="n">
         <v>1037.833381954407</v>
@@ -7515,25 +7515,25 @@
         <v>1037.833381954407</v>
       </c>
       <c r="S42" t="n">
-        <v>1037.833381954407</v>
+        <v>939.8718573783324</v>
       </c>
       <c r="T42" t="n">
-        <v>836.3202825887362</v>
+        <v>738.3587580126615</v>
       </c>
       <c r="U42" t="n">
-        <v>608.1076571751072</v>
+        <v>510.1461325990325</v>
       </c>
       <c r="V42" t="n">
-        <v>372.9555489433645</v>
+        <v>274.9940243672898</v>
       </c>
       <c r="W42" t="n">
-        <v>118.7181922151628</v>
+        <v>20.75666763908815</v>
       </c>
       <c r="X42" t="n">
-        <v>118.7181922151628</v>
+        <v>20.75666763908815</v>
       </c>
       <c r="Y42" t="n">
-        <v>118.7181922151628</v>
+        <v>20.75666763908815</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>20.75666763908814</v>
+        <v>189.692850566995</v>
       </c>
       <c r="C43" t="n">
-        <v>20.75666763908814</v>
+        <v>20.75666763908815</v>
       </c>
       <c r="D43" t="n">
-        <v>20.75666763908814</v>
+        <v>20.75666763908815</v>
       </c>
       <c r="E43" t="n">
-        <v>20.75666763908814</v>
+        <v>20.75666763908815</v>
       </c>
       <c r="F43" t="n">
-        <v>20.75666763908814</v>
+        <v>20.75666763908815</v>
       </c>
       <c r="G43" t="n">
-        <v>20.75666763908814</v>
+        <v>20.75666763908815</v>
       </c>
       <c r="H43" t="n">
-        <v>20.75666763908814</v>
+        <v>20.75666763908815</v>
       </c>
       <c r="I43" t="n">
-        <v>20.75666763908814</v>
+        <v>20.75666763908815</v>
       </c>
       <c r="J43" t="n">
-        <v>20.75666763908814</v>
+        <v>20.75666763908815</v>
       </c>
       <c r="K43" t="n">
-        <v>20.75666763908814</v>
+        <v>20.75666763908815</v>
       </c>
       <c r="L43" t="n">
         <v>68.48297573276727</v>
@@ -7591,28 +7591,28 @@
         <v>251.5502594658794</v>
       </c>
       <c r="R43" t="n">
-        <v>78.7647005244155</v>
+        <v>251.5502594658794</v>
       </c>
       <c r="S43" t="n">
-        <v>20.75666763908814</v>
+        <v>251.5502594658794</v>
       </c>
       <c r="T43" t="n">
-        <v>20.75666763908814</v>
+        <v>251.5502594658794</v>
       </c>
       <c r="U43" t="n">
-        <v>20.75666763908814</v>
+        <v>251.5502594658794</v>
       </c>
       <c r="V43" t="n">
-        <v>20.75666763908814</v>
+        <v>251.5502594658794</v>
       </c>
       <c r="W43" t="n">
-        <v>20.75666763908814</v>
+        <v>251.5502594658794</v>
       </c>
       <c r="X43" t="n">
-        <v>20.75666763908814</v>
+        <v>251.5502594658794</v>
       </c>
       <c r="Y43" t="n">
-        <v>20.75666763908814</v>
+        <v>251.5502594658794</v>
       </c>
     </row>
     <row r="44">
@@ -8693,22 +8693,22 @@
         <v>235.0833662925624</v>
       </c>
       <c r="L11" t="n">
-        <v>224.8122776544178</v>
+        <v>241.2981760920484</v>
       </c>
       <c r="M11" t="n">
         <v>230.379796581749</v>
       </c>
       <c r="N11" t="n">
-        <v>174.2471299119294</v>
+        <v>188.6861429268883</v>
       </c>
       <c r="O11" t="n">
         <v>178.0065845649677</v>
       </c>
       <c r="P11" t="n">
-        <v>241.0950658662806</v>
+        <v>186.7739974154411</v>
       </c>
       <c r="Q11" t="n">
-        <v>188.9188336616548</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8775,10 +8775,10 @@
         <v>156.9581796990656</v>
       </c>
       <c r="M12" t="n">
-        <v>137.4645440098229</v>
+        <v>154.5413441045352</v>
       </c>
       <c r="N12" t="n">
-        <v>88.3186213519285</v>
+        <v>125.5628897080555</v>
       </c>
       <c r="O12" t="n">
         <v>103.2385216682338</v>
@@ -8787,7 +8787,7 @@
         <v>102.3863650482886</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.1870727490601</v>
+        <v>118.8660042982206</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8851,13 +8851,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>162.4747015415545</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
         <v>171.5076755652159</v>
       </c>
       <c r="N13" t="n">
-        <v>160.7843451184889</v>
+        <v>160.7843451184888</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,25 +8927,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>180.762297841723</v>
+        <v>235.0833662925624</v>
       </c>
       <c r="L14" t="n">
-        <v>201.4161206561679</v>
+        <v>241.2981760920484</v>
       </c>
       <c r="M14" t="n">
-        <v>176.0587281309096</v>
+        <v>230.379796581749</v>
       </c>
       <c r="N14" t="n">
-        <v>228.5681983627689</v>
+        <v>174.2471299119294</v>
       </c>
       <c r="O14" t="n">
-        <v>232.3276530158072</v>
+        <v>178.0065845649677</v>
       </c>
       <c r="P14" t="n">
-        <v>241.0950658662806</v>
+        <v>224.6091674286499</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>188.9188336616548</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>111.2090258901748</v>
       </c>
       <c r="K15" t="n">
         <v>165.4507394112668</v>
       </c>
       <c r="L15" t="n">
-        <v>156.9581796990656</v>
+        <v>154.7633890545872</v>
       </c>
       <c r="M15" t="n">
-        <v>154.5413441045353</v>
+        <v>100.2202756536958</v>
       </c>
       <c r="N15" t="n">
-        <v>125.5628897080556</v>
+        <v>88.31862135192848</v>
       </c>
       <c r="O15" t="n">
         <v>103.2385216682338</v>
       </c>
       <c r="P15" t="n">
-        <v>102.3863650482886</v>
+        <v>156.707433499128</v>
       </c>
       <c r="Q15" t="n">
-        <v>118.8660042982206</v>
+        <v>173.18707274906</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9094,7 +9094,7 @@
         <v>171.5076755652159</v>
       </c>
       <c r="N16" t="n">
-        <v>160.7843451184889</v>
+        <v>160.7843451184888</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9167,13 +9167,13 @@
         <v>246.1167380185353</v>
       </c>
       <c r="L17" t="n">
-        <v>252.3315478180214</v>
+        <v>186.977107641209</v>
       </c>
       <c r="M17" t="n">
-        <v>201.0853200748325</v>
+        <v>201.0853200748324</v>
       </c>
       <c r="N17" t="n">
-        <v>174.2471299119294</v>
+        <v>239.6015700887418</v>
       </c>
       <c r="O17" t="n">
         <v>178.0065845649677</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>111.2090258901748</v>
       </c>
       <c r="K18" t="n">
         <v>176.4841111372398</v>
@@ -9252,7 +9252,7 @@
         <v>100.2202756536958</v>
       </c>
       <c r="N18" t="n">
-        <v>136.1504686370195</v>
+        <v>151.0324780872535</v>
       </c>
       <c r="O18" t="n">
         <v>168.5929618450461</v>
@@ -9398,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504508</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9477,19 +9477,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>111.2090258901748</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>111.1296709604274</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>141.2274490255077</v>
       </c>
       <c r="M21" t="n">
-        <v>425.0330613191099</v>
+        <v>425.03306131911</v>
       </c>
       <c r="N21" t="n">
-        <v>106.5122186746342</v>
+        <v>413.1314070173427</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>118.8660042982206</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9723,16 +9723,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>425.0330613191099</v>
+        <v>317.8263871472689</v>
       </c>
       <c r="N24" t="n">
         <v>413.1314070173427</v>
       </c>
       <c r="O24" t="n">
-        <v>212.1082510880411</v>
+        <v>103.2385216682338</v>
       </c>
       <c r="P24" t="n">
-        <v>102.3863650482886</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>111.1296709604274</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,16 +9963,16 @@
         <v>425.0330613191099</v>
       </c>
       <c r="N27" t="n">
-        <v>413.1314070173426</v>
+        <v>305.9247328455015</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>103.2385216682338</v>
       </c>
       <c r="P27" t="n">
-        <v>165.1791463493798</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>118.8660042982206</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>111.1296709604274</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>126.3454395752735</v>
+        <v>102.6371112482262</v>
       </c>
       <c r="M30" t="n">
         <v>425.0330613191099</v>
@@ -10203,13 +10203,13 @@
         <v>413.1314070173426</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>355.446364989254</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>118.8660042982206</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720739</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10364,7 +10364,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714827</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>111.2090258901748</v>
       </c>
       <c r="K33" t="n">
-        <v>111.1296709604274</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>102.6371112482262</v>
       </c>
       <c r="M33" t="n">
-        <v>425.0330613191099</v>
+        <v>310.2878330442401</v>
       </c>
       <c r="N33" t="n">
         <v>413.1314070173426</v>
@@ -10443,10 +10443,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>165.1791463493798</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>118.8660042982206</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,19 +10586,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>247.0437283156753</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>446.5504453454842</v>
+        <v>446.5504453454843</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>303.6984970072559</v>
       </c>
       <c r="P35" t="n">
         <v>186.7739974154411</v>
@@ -10826,16 +10826,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>205.5348195389194</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>446.5504453454842</v>
+        <v>446.5504453454843</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>428.0141260982307</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>178.0065845649677</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>111.1296709604274</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,16 +10911,16 @@
         <v>370.7119928682705</v>
       </c>
       <c r="N39" t="n">
-        <v>358.8103385665032</v>
+        <v>244.0765705666866</v>
       </c>
       <c r="O39" t="n">
-        <v>196.872188268469</v>
+        <v>373.7302388828085</v>
       </c>
       <c r="P39" t="n">
         <v>102.3863650482886</v>
       </c>
       <c r="Q39" t="n">
-        <v>118.8660042982206</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,22 +11060,22 @@
         <v>154.8055073789215</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>232.3219627393707</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>411.4625097294532</v>
+        <v>435.5170736195113</v>
       </c>
       <c r="N41" t="n">
         <v>433.7054754005312</v>
       </c>
       <c r="O41" t="n">
-        <v>178.0065845649677</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>186.7739974154411</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>111.1296709604274</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>102.6371112482262</v>
@@ -11148,13 +11148,13 @@
         <v>359.6786211422976</v>
       </c>
       <c r="N42" t="n">
-        <v>274.5824503753341</v>
+        <v>337.3232879148316</v>
       </c>
       <c r="O42" t="n">
-        <v>362.6968671568355</v>
+        <v>362.6968671568356</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>102.3863650482886</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -23264,7 +23264,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>327.6093016214223</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>359.0300486502121</v>
@@ -23276,7 +23276,7 @@
         <v>281.9874488325791</v>
       </c>
       <c r="I11" t="n">
-        <v>198.5566222935482</v>
+        <v>144.2355538427088</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23352,10 +23352,10 @@
         <v>137.1780967566817</v>
       </c>
       <c r="H12" t="n">
-        <v>62.79183427141486</v>
+        <v>110.6378313629142</v>
       </c>
       <c r="I12" t="n">
-        <v>29.3801688249078</v>
+        <v>29.38016882490781</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>89.88725838587192</v>
+        <v>42.04126129437257</v>
       </c>
       <c r="S12" t="n">
         <v>168.6105596053724</v>
@@ -23394,7 +23394,7 @@
         <v>225.9304991594927</v>
       </c>
       <c r="V12" t="n">
-        <v>178.4795186985858</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>197.3739147100802</v>
@@ -23403,7 +23403,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>151.3616273264649</v>
       </c>
     </row>
     <row r="13">
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>112.9257526477884</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23440,7 +23440,7 @@
         <v>83.55429823811227</v>
       </c>
       <c r="K13" t="n">
-        <v>6.157058958710007</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,16 +23458,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.22817205128304</v>
+        <v>20.22817205128303</v>
       </c>
       <c r="R13" t="n">
         <v>116.7366349012098</v>
       </c>
       <c r="S13" t="n">
-        <v>167.2786646560569</v>
+        <v>179.910794974107</v>
       </c>
       <c r="T13" t="n">
-        <v>179.5070380764088</v>
+        <v>227.3530351679082</v>
       </c>
       <c r="U13" t="n">
         <v>286.311464834018</v>
@@ -23504,10 +23504,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>352.554977290872</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>367.1475706609262</v>
+        <v>414.9935677524256</v>
       </c>
       <c r="H14" t="n">
         <v>281.9874488325791</v>
@@ -23540,10 +23540,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>130.4482328343495</v>
+        <v>76.12716438351009</v>
       </c>
       <c r="S14" t="n">
-        <v>201.9748636185028</v>
+        <v>154.1288665270035</v>
       </c>
       <c r="T14" t="n">
         <v>221.7424589278706</v>
@@ -23583,16 +23583,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>97.22321530188454</v>
       </c>
       <c r="G15" t="n">
         <v>137.1780967566817</v>
       </c>
       <c r="H15" t="n">
-        <v>56.31676291207479</v>
+        <v>110.6378313629142</v>
       </c>
       <c r="I15" t="n">
-        <v>29.3801688249078</v>
+        <v>29.38016882490781</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,13 +23619,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>89.88725838587192</v>
+        <v>35.56618993503248</v>
       </c>
       <c r="S15" t="n">
-        <v>168.6105596053724</v>
+        <v>114.289491154533</v>
       </c>
       <c r="T15" t="n">
-        <v>151.6519712805148</v>
+        <v>199.4979683720141</v>
       </c>
       <c r="U15" t="n">
         <v>225.9304991594927</v>
@@ -23637,7 +23637,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>151.4519167526381</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>125.5109117310979</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>112.9257526477884</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>94.29440456737294</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,19 +23665,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>113.531227995617</v>
+        <v>167.8522964464565</v>
       </c>
       <c r="H16" t="n">
-        <v>113.1481582528655</v>
+        <v>160.9941553443649</v>
       </c>
       <c r="I16" t="n">
-        <v>96.95883308638695</v>
+        <v>151.2799015372264</v>
       </c>
       <c r="J16" t="n">
-        <v>29.23322978727283</v>
+        <v>83.55429823811227</v>
       </c>
       <c r="K16" t="n">
-        <v>6.157058958710007</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.54924050212247</v>
+        <v>74.54924050212246</v>
       </c>
       <c r="R16" t="n">
         <v>171.0577033520492</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>176.8957152193055</v>
       </c>
     </row>
     <row r="17">
@@ -23741,16 +23741,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>349.3118548339751</v>
       </c>
       <c r="G17" t="n">
-        <v>414.9935677524256</v>
+        <v>349.6391275756132</v>
       </c>
       <c r="H17" t="n">
-        <v>336.3085172834186</v>
+        <v>270.9540771066062</v>
       </c>
       <c r="I17" t="n">
-        <v>198.5566222935482</v>
+        <v>133.2021821167358</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23777,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>72.88404192661319</v>
+        <v>130.4482328343495</v>
       </c>
       <c r="S17" t="n">
-        <v>136.6204234416904</v>
+        <v>201.9748636185028</v>
       </c>
       <c r="T17" t="n">
-        <v>156.3880187510582</v>
+        <v>221.7424589278706</v>
       </c>
       <c r="U17" t="n">
-        <v>185.9664791500074</v>
+        <v>251.3209193268197</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23817,19 +23817,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>100.0808895476646</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>79.7147722165715</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>71.82365657986932</v>
+        <v>137.1780967566817</v>
       </c>
       <c r="H18" t="n">
         <v>110.6378313629142</v>
       </c>
       <c r="I18" t="n">
-        <v>18.34679709893486</v>
+        <v>83.70123727574723</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,19 +23856,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>89.88725838587192</v>
+        <v>89.8872583858719</v>
       </c>
       <c r="S18" t="n">
-        <v>168.6105596053724</v>
+        <v>111.0463686976361</v>
       </c>
       <c r="T18" t="n">
-        <v>199.4979683720141</v>
+        <v>134.1435281952017</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9304991594927</v>
+        <v>160.5760589826803</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>167.4461469726129</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23893,7 +23893,7 @@
         <v>134.8244857205417</v>
       </c>
       <c r="D19" t="n">
-        <v>83.26103284139998</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23914,7 +23914,7 @@
         <v>83.55429823811227</v>
       </c>
       <c r="K19" t="n">
-        <v>6.15705895871001</v>
+        <v>6.15705895871</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23932,7 +23932,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.54924050212247</v>
+        <v>74.54924050212246</v>
       </c>
       <c r="R19" t="n">
         <v>171.0577033520492</v>
@@ -23941,22 +23941,22 @@
         <v>221.5997331068963</v>
       </c>
       <c r="T19" t="n">
-        <v>227.3530351679082</v>
+        <v>161.9985949910958</v>
       </c>
       <c r="U19" t="n">
-        <v>220.9570246572056</v>
+        <v>286.311464834018</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>221.1685581597786</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>160.3552152122248</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.2302131752824</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,16 +23969,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>40.46010610559341</v>
+        <v>40.46010610559335</v>
       </c>
       <c r="D20" t="n">
-        <v>29.87025595526882</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>82.06326007629724</v>
       </c>
       <c r="G20" t="n">
         <v>414.9935677524256</v>
@@ -23987,7 +23987,7 @@
         <v>336.3085172834186</v>
       </c>
       <c r="I20" t="n">
-        <v>191.1603461030771</v>
+        <v>198.5566222935482</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,25 +24014,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>130.4482328343495</v>
       </c>
       <c r="S20" t="n">
         <v>201.9748636185028</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.7424589278706</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.3209193268197</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>63.14586710331622</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>44.91831501305484</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24057,10 +24057,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>16.3662470340973</v>
+        <v>137.1780967566817</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24096,22 +24096,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>168.6105596053724</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>199.4979683720141</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>56.30546790397597</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24151,7 +24151,7 @@
         <v>83.55429823811227</v>
       </c>
       <c r="K22" t="n">
-        <v>6.15705895871001</v>
+        <v>6.15705895871</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24169,22 +24169,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.54924050212247</v>
+        <v>74.54924050212246</v>
       </c>
       <c r="R22" t="n">
-        <v>171.0577033520492</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>221.5997331068963</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>169.9250826114341</v>
       </c>
       <c r="U22" t="n">
         <v>286.311464834018</v>
       </c>
       <c r="V22" t="n">
-        <v>251.0050225832129</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24212,16 +24212,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>57.11758440684764</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>82.06326007629724</v>
       </c>
       <c r="G23" t="n">
-        <v>90.18078208701144</v>
+        <v>90.18078208701138</v>
       </c>
       <c r="H23" t="n">
-        <v>11.49573161800441</v>
+        <v>336.3085172834186</v>
       </c>
       <c r="I23" t="n">
         <v>198.5566222935482</v>
@@ -24251,19 +24251,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>95.6740505470726</v>
+        <v>66.09559014812314</v>
       </c>
       <c r="S23" t="n">
         <v>201.9748636185028</v>
       </c>
       <c r="T23" t="n">
-        <v>221.7424589278706</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.3209193268197</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>2.939472804720708</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24291,19 +24291,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>9.858368229630742</v>
       </c>
       <c r="F24" t="n">
-        <v>71.11860874097874</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.1780967566817</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>110.6378313629142</v>
       </c>
       <c r="I24" t="n">
-        <v>83.70123727574723</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24330,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>89.88725838587192</v>
+        <v>89.8872583858719</v>
       </c>
       <c r="S24" t="n">
         <v>168.6105596053724</v>
       </c>
       <c r="T24" t="n">
-        <v>199.4979683720141</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9304991594927</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24388,7 +24388,7 @@
         <v>83.55429823811227</v>
       </c>
       <c r="K25" t="n">
-        <v>6.15705895871001</v>
+        <v>6.15705895871</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24406,16 +24406,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>74.54924050212246</v>
       </c>
       <c r="R25" t="n">
-        <v>17.12128794564845</v>
+        <v>171.0577033520492</v>
       </c>
       <c r="S25" t="n">
-        <v>221.5997331068963</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>227.3530351679082</v>
+        <v>220.4671123662812</v>
       </c>
       <c r="U25" t="n">
         <v>286.311464834018</v>
@@ -24452,7 +24452,7 @@
         <v>57.11758440684764</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>342.5234030554851</v>
       </c>
       <c r="G26" t="n">
         <v>414.9935677524256</v>
@@ -24488,25 +24488,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>130.4482328343495</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>201.9748636185028</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>194.5785874280317</v>
+        <v>251.3209193268197</v>
       </c>
       <c r="V26" t="n">
-        <v>2.939472804720765</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>24.42818305199887</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>44.91831501305489</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,13 +24519,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>164.3075455536616</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24540,7 +24540,7 @@
         <v>110.6378313629142</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>83.70123727574723</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,25 +24567,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>89.8872583858719</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>168.6105596053724</v>
       </c>
       <c r="T27" t="n">
-        <v>199.4979683720141</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9304991594927</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>88.80192210619808</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24643,10 +24643,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.54924050212246</v>
+        <v>17.1212879456484</v>
       </c>
       <c r="R28" t="n">
-        <v>171.0577033520492</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>221.5997331068963</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>58.03734242806772</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,13 +24680,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>40.46010610559341</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>57.11758440684764</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24695,7 +24695,7 @@
         <v>414.9935677524256</v>
       </c>
       <c r="H29" t="n">
-        <v>175.2781716242755</v>
+        <v>125.9321159159586</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24728,25 +24728,25 @@
         <v>130.4482328343495</v>
       </c>
       <c r="S29" t="n">
-        <v>201.9748636185028</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>221.7424589278706</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.3209193268197</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>24.42818305199887</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>61.42515299063945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,16 +24759,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.1780967566817</v>
@@ -24807,22 +24807,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>168.6105596053724</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>183.5750881255939</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>117.7593218091778</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>118.5931453720417</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,10 +24847,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>84.7876885608643</v>
+        <v>167.8522964464565</v>
       </c>
       <c r="H31" t="n">
         <v>160.9941553443649</v>
@@ -24917,16 +24917,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>79.17779015691087</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>29.87025595526882</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>57.11758440684764</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>82.0632600762973</v>
       </c>
       <c r="G32" t="n">
         <v>414.9935677524256</v>
@@ -24971,19 +24971,19 @@
         <v>221.7424589278706</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3209193268197</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>2.939472804720765</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>314.466786430136</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>44.91831501305489</v>
       </c>
       <c r="Y32" t="n">
-        <v>61.42515299063945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,19 +24993,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -25014,7 +25014,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>83.70123727574723</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25044,7 +25044,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>154.122731574867</v>
+        <v>12.44147033909704</v>
       </c>
       <c r="T33" t="n">
         <v>199.4979683720141</v>
@@ -25053,16 +25053,16 @@
         <v>225.9304991594927</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25160,16 +25160,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>143.6812655496646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>136.3843285271367</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>414.9935677524256</v>
       </c>
       <c r="H35" t="n">
-        <v>336.3085172834186</v>
+        <v>65.81680006884386</v>
       </c>
       <c r="I35" t="n">
         <v>198.5566222935482</v>
@@ -25199,25 +25199,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>130.4482328343495</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>201.9748636185028</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.7424589278706</v>
+        <v>45.42473364355092</v>
       </c>
       <c r="U35" t="n">
         <v>251.3209193268197</v>
       </c>
       <c r="V35" t="n">
-        <v>57.26054125556021</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>78.74925150283832</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>99.23938346389434</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,25 +25230,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>168.3174843553581</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>139.6998430060854</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.1780967566817</v>
       </c>
       <c r="H36" t="n">
-        <v>110.6378313629142</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>83.70123727574723</v>
@@ -25281,7 +25281,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>168.6105596053724</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>145.301341905954</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25354,16 +25354,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>74.54924050212246</v>
       </c>
       <c r="R37" t="n">
-        <v>17.12128794564839</v>
+        <v>171.0577033520492</v>
       </c>
       <c r="S37" t="n">
         <v>221.5997331068963</v>
       </c>
       <c r="T37" t="n">
-        <v>227.3530351679082</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.311464834018</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>255.7621720874778</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25397,19 +25397,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>342.2378878432128</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>136.3843285271367</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>144.5018505378509</v>
+        <v>414.9935677524256</v>
       </c>
       <c r="H38" t="n">
-        <v>65.81680006884386</v>
+        <v>336.3085172834186</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>198.5566222935482</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>130.4482328343495</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>201.9748636185028</v>
@@ -25445,13 +25445,13 @@
         <v>221.7424589278706</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3209193268197</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>57.26054125556021</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>78.74925150283832</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25467,13 +25467,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25515,22 +25515,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>89.8872583858719</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>168.6105596053724</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>199.4979683720141</v>
       </c>
       <c r="U39" t="n">
-        <v>19.9604794953926</v>
+        <v>225.9304991594927</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>190.0004145640738</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25555,10 +25555,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>63.36935476097696</v>
       </c>
       <c r="G40" t="n">
         <v>167.8522964464565</v>
@@ -25603,7 +25603,7 @@
         <v>227.3530351679082</v>
       </c>
       <c r="U40" t="n">
-        <v>57.82580892549456</v>
+        <v>286.311464834018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25631,22 +25631,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>95.22469613208119</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>147.4177002531096</v>
       </c>
       <c r="G41" t="n">
-        <v>414.9935677524256</v>
+        <v>155.5352222638238</v>
       </c>
       <c r="H41" t="n">
-        <v>177.3241162163541</v>
+        <v>336.3085172834186</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>42.99046255143824</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>201.9748636185028</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>221.7424589278706</v>
@@ -25685,7 +25685,7 @@
         <v>251.3209193268197</v>
       </c>
       <c r="V41" t="n">
-        <v>68.29391298153314</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25719,7 +25719,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>40.19618742636774</v>
+        <v>137.1780967566817</v>
       </c>
       <c r="H42" t="n">
         <v>110.6378313629142</v>
@@ -25755,7 +25755,7 @@
         <v>89.8872583858719</v>
       </c>
       <c r="S42" t="n">
-        <v>168.6105596053724</v>
+        <v>71.62865027505828</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>118.5931453720418</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25831,10 +25831,10 @@
         <v>74.54924050212246</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>171.0577033520492</v>
       </c>
       <c r="S43" t="n">
-        <v>164.1717805504223</v>
+        <v>221.5997331068963</v>
       </c>
       <c r="T43" t="n">
         <v>227.3530351679082</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>333143.2931183457</v>
+        <v>333143.2931183456</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>510665.745900479</v>
+        <v>510665.7459004791</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>510665.745900479</v>
+        <v>510665.7459004791</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>475132.7890601509</v>
+        <v>475132.789060151</v>
       </c>
     </row>
     <row r="14">
@@ -26326,25 +26326,25 @@
         <v>177271.2824818499</v>
       </c>
       <c r="G2" t="n">
-        <v>181224.9304881544</v>
+        <v>181224.9304881545</v>
       </c>
       <c r="H2" t="n">
-        <v>267214.6983766572</v>
+        <v>267214.6983766573</v>
       </c>
       <c r="I2" t="n">
-        <v>267214.6983766573</v>
+        <v>267214.6983766574</v>
       </c>
       <c r="J2" t="n">
         <v>267214.6983766573</v>
       </c>
       <c r="K2" t="n">
-        <v>267214.6983766572</v>
+        <v>267214.6983766573</v>
       </c>
       <c r="L2" t="n">
         <v>267214.6983766572</v>
       </c>
       <c r="M2" t="n">
-        <v>249211.5924879382</v>
+        <v>249211.5924879381</v>
       </c>
       <c r="N2" t="n">
         <v>249211.5924879381</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>78005.56979985069</v>
+        <v>78005.56979985071</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3024.081689513294</v>
+        <v>3024.081689513267</v>
       </c>
       <c r="H3" t="n">
         <v>70004.19673793417</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415532.5557256225</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="C4" t="n">
-        <v>415532.5557256226</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="D4" t="n">
-        <v>415532.5557256225</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
-        <v>68014.87554879782</v>
+        <v>67283.47399238244</v>
       </c>
       <c r="F4" t="n">
-        <v>68014.87554879782</v>
+        <v>67283.47399238242</v>
       </c>
       <c r="G4" t="n">
-        <v>69916.78597526955</v>
+        <v>69165.01096974401</v>
       </c>
       <c r="H4" t="n">
-        <v>111282.338967401</v>
+        <v>110087.4521427967</v>
       </c>
       <c r="I4" t="n">
-        <v>111282.338967401</v>
+        <v>110087.4521427966</v>
       </c>
       <c r="J4" t="n">
-        <v>111282.338967401</v>
+        <v>110087.4521427967</v>
       </c>
       <c r="K4" t="n">
-        <v>111282.338967401</v>
+        <v>110087.4521427966</v>
       </c>
       <c r="L4" t="n">
-        <v>111282.338967401</v>
+        <v>110087.4521427966</v>
       </c>
       <c r="M4" t="n">
-        <v>102621.9082097744</v>
+        <v>101519.792760129</v>
       </c>
       <c r="N4" t="n">
-        <v>102621.9082097744</v>
+        <v>101519.792760129</v>
       </c>
       <c r="O4" t="n">
-        <v>100862.8531215554</v>
+        <v>99779.58084076954</v>
       </c>
       <c r="P4" t="n">
-        <v>57650.75349458891</v>
+        <v>57030.37341968181</v>
       </c>
     </row>
     <row r="5">
@@ -26482,7 +26482,7 @@
         <v>4979.271292543937</v>
       </c>
       <c r="G5" t="n">
-        <v>5650.100293483092</v>
+        <v>5650.100293483094</v>
       </c>
       <c r="H5" t="n">
         <v>21425.16769919008</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>124333.2813763044</v>
+        <v>125093.438488968</v>
       </c>
       <c r="C6" t="n">
-        <v>124333.2813763043</v>
+        <v>125093.438488968</v>
       </c>
       <c r="D6" t="n">
-        <v>124333.2813763045</v>
+        <v>125093.4384889681</v>
       </c>
       <c r="E6" t="n">
-        <v>26271.56584065747</v>
+        <v>27002.96739707282</v>
       </c>
       <c r="F6" t="n">
-        <v>104277.1356405081</v>
+        <v>105008.5371969235</v>
       </c>
       <c r="G6" t="n">
-        <v>102633.9625298885</v>
+        <v>103385.7375354141</v>
       </c>
       <c r="H6" t="n">
-        <v>64502.99497213193</v>
+        <v>65697.88179673636</v>
       </c>
       <c r="I6" t="n">
-        <v>134507.1917100661</v>
+        <v>135702.0785346707</v>
       </c>
       <c r="J6" t="n">
-        <v>134507.1917100662</v>
+        <v>135702.0785346705</v>
       </c>
       <c r="K6" t="n">
-        <v>134507.1917100661</v>
+        <v>135702.0785346706</v>
       </c>
       <c r="L6" t="n">
-        <v>134507.1917100661</v>
+        <v>135702.0785346705</v>
       </c>
       <c r="M6" t="n">
-        <v>128467.2375407847</v>
+        <v>129569.3529904301</v>
       </c>
       <c r="N6" t="n">
-        <v>128467.2375407847</v>
+        <v>129569.3529904301</v>
       </c>
       <c r="O6" t="n">
-        <v>127240.4380418421</v>
+        <v>128323.710322628</v>
       </c>
       <c r="P6" t="n">
-        <v>96399.27816674941</v>
+        <v>97019.65824165652</v>
       </c>
     </row>
   </sheetData>
@@ -26744,19 +26744,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>76.90597847398622</v>
+        <v>76.90597847398625</v>
       </c>
       <c r="F3" t="n">
-        <v>76.90597847398622</v>
+        <v>76.90597847398625</v>
       </c>
       <c r="G3" t="n">
-        <v>76.90597847398621</v>
+        <v>76.90597847398625</v>
       </c>
       <c r="H3" t="n">
-        <v>76.90597847398621</v>
+        <v>76.90597847398625</v>
       </c>
       <c r="I3" t="n">
-        <v>76.90597847398621</v>
+        <v>76.90597847398625</v>
       </c>
       <c r="J3" t="n">
         <v>76.90597847398625</v>
@@ -26802,13 +26802,13 @@
         <v>54.32106845083943</v>
       </c>
       <c r="G4" t="n">
-        <v>65.35444017681237</v>
+        <v>65.35444017681239</v>
       </c>
       <c r="H4" t="n">
-        <v>324.8127856654141</v>
+        <v>324.8127856654142</v>
       </c>
       <c r="I4" t="n">
-        <v>324.8127856654141</v>
+        <v>324.8127856654142</v>
       </c>
       <c r="J4" t="n">
         <v>324.8127856654141</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>76.90597847398622</v>
+        <v>76.90597847398625</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>11.03337172597294</v>
+        <v>11.03337172597284</v>
       </c>
       <c r="H4" t="n">
         <v>259.4583454886018</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>11.03337172597294</v>
+        <v>11.03337172597284</v>
       </c>
       <c r="P4" t="n">
         <v>259.4583454886018</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3091697627094921</v>
+        <v>0.3091697627094923</v>
       </c>
       <c r="H11" t="n">
-        <v>3.166284832348587</v>
+        <v>3.166284832348588</v>
       </c>
       <c r="I11" t="n">
         <v>11.91926727685771</v>
       </c>
       <c r="J11" t="n">
-        <v>26.24039714776478</v>
+        <v>26.24039714776479</v>
       </c>
       <c r="K11" t="n">
-        <v>39.32755320325759</v>
+        <v>39.32755320325761</v>
       </c>
       <c r="L11" t="n">
-        <v>48.78930732877822</v>
+        <v>48.78930732877824</v>
       </c>
       <c r="M11" t="n">
-        <v>54.28750509636315</v>
+        <v>54.28750509636317</v>
       </c>
       <c r="N11" t="n">
-        <v>55.1659336846615</v>
+        <v>55.16593368466152</v>
       </c>
       <c r="O11" t="n">
-        <v>52.09162685671898</v>
+        <v>52.091626856719</v>
       </c>
       <c r="P11" t="n">
-        <v>44.45899833982839</v>
+        <v>44.4589983398284</v>
       </c>
       <c r="Q11" t="n">
-        <v>33.38685621279469</v>
+        <v>33.3868562127947</v>
       </c>
       <c r="R11" t="n">
-        <v>19.42088510680015</v>
+        <v>19.42088510680016</v>
       </c>
       <c r="S11" t="n">
-        <v>7.045205967742559</v>
+        <v>7.045205967742562</v>
       </c>
       <c r="T11" t="n">
-        <v>1.353390636260802</v>
+        <v>1.353390636260803</v>
       </c>
       <c r="U11" t="n">
         <v>0.02473358101675937</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1654204065289515</v>
+        <v>0.1654204065289516</v>
       </c>
       <c r="H12" t="n">
-        <v>1.597612873582242</v>
+        <v>1.597612873582243</v>
       </c>
       <c r="I12" t="n">
-        <v>5.695395575667849</v>
+        <v>5.695395575667851</v>
       </c>
       <c r="J12" t="n">
-        <v>15.62860077649186</v>
+        <v>15.62860077649187</v>
       </c>
       <c r="K12" t="n">
-        <v>26.71176801393161</v>
+        <v>26.71176801393162</v>
       </c>
       <c r="L12" t="n">
-        <v>35.91726853164801</v>
+        <v>35.91726853164802</v>
       </c>
       <c r="M12" t="n">
-        <v>41.91375826832249</v>
+        <v>41.9137582683225</v>
       </c>
       <c r="N12" t="n">
-        <v>43.02309073140481</v>
+        <v>43.02309073140482</v>
       </c>
       <c r="O12" t="n">
-        <v>39.35772277621066</v>
+        <v>39.35772277621068</v>
       </c>
       <c r="P12" t="n">
-        <v>31.58804236604163</v>
+        <v>31.58804236604164</v>
       </c>
       <c r="Q12" t="n">
-        <v>21.1157697878009</v>
+        <v>21.11576978780091</v>
       </c>
       <c r="R12" t="n">
-        <v>10.27057576677122</v>
+        <v>10.27057576677123</v>
       </c>
       <c r="S12" t="n">
-        <v>3.072611498465391</v>
+        <v>3.072611498465392</v>
       </c>
       <c r="T12" t="n">
-        <v>0.6667603228074841</v>
+        <v>0.6667603228074843</v>
       </c>
       <c r="U12" t="n">
         <v>0.01088292148216787</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1386829120022702</v>
+        <v>0.1386829120022703</v>
       </c>
       <c r="H13" t="n">
         <v>1.233017163074731</v>
       </c>
       <c r="I13" t="n">
-        <v>4.170573390031909</v>
+        <v>4.170573390031911</v>
       </c>
       <c r="J13" t="n">
-        <v>9.804881878560504</v>
+        <v>9.804881878560508</v>
       </c>
       <c r="K13" t="n">
         <v>16.11243286717285</v>
       </c>
       <c r="L13" t="n">
-        <v>20.61836675350116</v>
+        <v>20.61836675350117</v>
       </c>
       <c r="M13" t="n">
-        <v>21.73917683322859</v>
+        <v>21.7391768332286</v>
       </c>
       <c r="N13" t="n">
         <v>21.22226779758379</v>
       </c>
       <c r="O13" t="n">
-        <v>19.60219923464816</v>
+        <v>19.60219923464817</v>
       </c>
       <c r="P13" t="n">
-        <v>16.77306782980184</v>
+        <v>16.77306782980185</v>
       </c>
       <c r="Q13" t="n">
         <v>11.61280274957192</v>
       </c>
       <c r="R13" t="n">
-        <v>6.235688025120258</v>
+        <v>6.23568802512026</v>
       </c>
       <c r="S13" t="n">
-        <v>2.416864930075926</v>
+        <v>2.416864930075927</v>
       </c>
       <c r="T13" t="n">
-        <v>0.5925542603733363</v>
+        <v>0.5925542603733365</v>
       </c>
       <c r="U13" t="n">
-        <v>0.007564522472851112</v>
+        <v>0.007564522472851115</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3091697627094921</v>
+        <v>0.3091697627094923</v>
       </c>
       <c r="H14" t="n">
-        <v>3.166284832348587</v>
+        <v>3.166284832348588</v>
       </c>
       <c r="I14" t="n">
         <v>11.91926727685771</v>
       </c>
       <c r="J14" t="n">
-        <v>26.24039714776478</v>
+        <v>26.24039714776479</v>
       </c>
       <c r="K14" t="n">
-        <v>39.32755320325759</v>
+        <v>39.32755320325761</v>
       </c>
       <c r="L14" t="n">
-        <v>48.78930732877822</v>
+        <v>48.78930732877824</v>
       </c>
       <c r="M14" t="n">
-        <v>54.28750509636315</v>
+        <v>54.28750509636317</v>
       </c>
       <c r="N14" t="n">
-        <v>55.1659336846615</v>
+        <v>55.16593368466152</v>
       </c>
       <c r="O14" t="n">
-        <v>52.09162685671898</v>
+        <v>52.091626856719</v>
       </c>
       <c r="P14" t="n">
-        <v>44.45899833982839</v>
+        <v>44.4589983398284</v>
       </c>
       <c r="Q14" t="n">
-        <v>33.38685621279469</v>
+        <v>33.3868562127947</v>
       </c>
       <c r="R14" t="n">
-        <v>19.42088510680015</v>
+        <v>19.42088510680016</v>
       </c>
       <c r="S14" t="n">
-        <v>7.045205967742559</v>
+        <v>7.045205967742562</v>
       </c>
       <c r="T14" t="n">
-        <v>1.353390636260802</v>
+        <v>1.353390636260803</v>
       </c>
       <c r="U14" t="n">
         <v>0.02473358101675937</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1654204065289515</v>
+        <v>0.1654204065289516</v>
       </c>
       <c r="H15" t="n">
-        <v>1.597612873582242</v>
+        <v>1.597612873582243</v>
       </c>
       <c r="I15" t="n">
-        <v>5.695395575667849</v>
+        <v>5.695395575667851</v>
       </c>
       <c r="J15" t="n">
-        <v>15.62860077649186</v>
+        <v>15.62860077649187</v>
       </c>
       <c r="K15" t="n">
-        <v>26.71176801393161</v>
+        <v>26.71176801393162</v>
       </c>
       <c r="L15" t="n">
-        <v>35.91726853164801</v>
+        <v>35.91726853164802</v>
       </c>
       <c r="M15" t="n">
-        <v>41.91375826832249</v>
+        <v>41.9137582683225</v>
       </c>
       <c r="N15" t="n">
-        <v>43.02309073140481</v>
+        <v>43.02309073140482</v>
       </c>
       <c r="O15" t="n">
-        <v>39.35772277621066</v>
+        <v>39.35772277621068</v>
       </c>
       <c r="P15" t="n">
-        <v>31.58804236604163</v>
+        <v>31.58804236604164</v>
       </c>
       <c r="Q15" t="n">
-        <v>21.1157697878009</v>
+        <v>21.11576978780091</v>
       </c>
       <c r="R15" t="n">
-        <v>10.27057576677122</v>
+        <v>10.27057576677123</v>
       </c>
       <c r="S15" t="n">
-        <v>3.072611498465391</v>
+        <v>3.072611498465392</v>
       </c>
       <c r="T15" t="n">
-        <v>0.6667603228074841</v>
+        <v>0.6667603228074843</v>
       </c>
       <c r="U15" t="n">
         <v>0.01088292148216787</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1386829120022702</v>
+        <v>0.1386829120022703</v>
       </c>
       <c r="H16" t="n">
         <v>1.233017163074731</v>
       </c>
       <c r="I16" t="n">
-        <v>4.170573390031909</v>
+        <v>4.170573390031911</v>
       </c>
       <c r="J16" t="n">
-        <v>9.804881878560504</v>
+        <v>9.804881878560508</v>
       </c>
       <c r="K16" t="n">
         <v>16.11243286717285</v>
       </c>
       <c r="L16" t="n">
-        <v>20.61836675350116</v>
+        <v>20.61836675350117</v>
       </c>
       <c r="M16" t="n">
-        <v>21.73917683322859</v>
+        <v>21.7391768332286</v>
       </c>
       <c r="N16" t="n">
         <v>21.22226779758379</v>
       </c>
       <c r="O16" t="n">
-        <v>19.60219923464816</v>
+        <v>19.60219923464817</v>
       </c>
       <c r="P16" t="n">
-        <v>16.77306782980184</v>
+        <v>16.77306782980185</v>
       </c>
       <c r="Q16" t="n">
         <v>11.61280274957192</v>
       </c>
       <c r="R16" t="n">
-        <v>6.235688025120258</v>
+        <v>6.23568802512026</v>
       </c>
       <c r="S16" t="n">
-        <v>2.416864930075926</v>
+        <v>2.416864930075927</v>
       </c>
       <c r="T16" t="n">
-        <v>0.5925542603733363</v>
+        <v>0.5925542603733365</v>
       </c>
       <c r="U16" t="n">
-        <v>0.007564522472851112</v>
+        <v>0.007564522472851115</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3091697627094921</v>
+        <v>0.3091697627094923</v>
       </c>
       <c r="H17" t="n">
-        <v>3.166284832348587</v>
+        <v>3.166284832348588</v>
       </c>
       <c r="I17" t="n">
-        <v>11.9192672768577</v>
+        <v>11.91926727685771</v>
       </c>
       <c r="J17" t="n">
-        <v>26.24039714776477</v>
+        <v>26.24039714776479</v>
       </c>
       <c r="K17" t="n">
-        <v>39.32755320325758</v>
+        <v>39.32755320325761</v>
       </c>
       <c r="L17" t="n">
-        <v>48.78930732877821</v>
+        <v>48.78930732877824</v>
       </c>
       <c r="M17" t="n">
-        <v>54.28750509636314</v>
+        <v>54.28750509636317</v>
       </c>
       <c r="N17" t="n">
-        <v>55.16593368466149</v>
+        <v>55.16593368466152</v>
       </c>
       <c r="O17" t="n">
-        <v>52.09162685671897</v>
+        <v>52.091626856719</v>
       </c>
       <c r="P17" t="n">
-        <v>44.45899833982838</v>
+        <v>44.4589983398284</v>
       </c>
       <c r="Q17" t="n">
-        <v>33.38685621279468</v>
+        <v>33.3868562127947</v>
       </c>
       <c r="R17" t="n">
-        <v>19.42088510680015</v>
+        <v>19.42088510680016</v>
       </c>
       <c r="S17" t="n">
-        <v>7.045205967742557</v>
+        <v>7.045205967742562</v>
       </c>
       <c r="T17" t="n">
-        <v>1.353390636260802</v>
+        <v>1.353390636260803</v>
       </c>
       <c r="U17" t="n">
-        <v>0.02473358101675936</v>
+        <v>0.02473358101675937</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1654204065289515</v>
+        <v>0.1654204065289516</v>
       </c>
       <c r="H18" t="n">
-        <v>1.597612873582242</v>
+        <v>1.597612873582243</v>
       </c>
       <c r="I18" t="n">
-        <v>5.695395575667847</v>
+        <v>5.695395575667851</v>
       </c>
       <c r="J18" t="n">
-        <v>15.62860077649186</v>
+        <v>15.62860077649187</v>
       </c>
       <c r="K18" t="n">
-        <v>26.71176801393161</v>
+        <v>26.71176801393162</v>
       </c>
       <c r="L18" t="n">
-        <v>35.917268531648</v>
+        <v>35.91726853164802</v>
       </c>
       <c r="M18" t="n">
-        <v>41.91375826832248</v>
+        <v>41.9137582683225</v>
       </c>
       <c r="N18" t="n">
-        <v>43.0230907314048</v>
+        <v>43.02309073140482</v>
       </c>
       <c r="O18" t="n">
-        <v>39.35772277621066</v>
+        <v>39.35772277621068</v>
       </c>
       <c r="P18" t="n">
-        <v>31.58804236604162</v>
+        <v>31.58804236604164</v>
       </c>
       <c r="Q18" t="n">
-        <v>21.1157697878009</v>
+        <v>21.11576978780091</v>
       </c>
       <c r="R18" t="n">
-        <v>10.27057576677122</v>
+        <v>10.27057576677123</v>
       </c>
       <c r="S18" t="n">
-        <v>3.072611498465391</v>
+        <v>3.072611498465392</v>
       </c>
       <c r="T18" t="n">
-        <v>0.666760322807484</v>
+        <v>0.6667603228074843</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01088292148216786</v>
+        <v>0.01088292148216787</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1386829120022702</v>
+        <v>0.1386829120022703</v>
       </c>
       <c r="H19" t="n">
-        <v>1.23301716307473</v>
+        <v>1.233017163074731</v>
       </c>
       <c r="I19" t="n">
-        <v>4.170573390031909</v>
+        <v>4.170573390031911</v>
       </c>
       <c r="J19" t="n">
-        <v>9.804881878560503</v>
+        <v>9.804881878560508</v>
       </c>
       <c r="K19" t="n">
-        <v>16.11243286717284</v>
+        <v>16.11243286717285</v>
       </c>
       <c r="L19" t="n">
-        <v>20.61836675350116</v>
+        <v>20.61836675350117</v>
       </c>
       <c r="M19" t="n">
-        <v>21.73917683322859</v>
+        <v>21.7391768332286</v>
       </c>
       <c r="N19" t="n">
-        <v>21.22226779758378</v>
+        <v>21.22226779758379</v>
       </c>
       <c r="O19" t="n">
-        <v>19.60219923464816</v>
+        <v>19.60219923464817</v>
       </c>
       <c r="P19" t="n">
-        <v>16.77306782980184</v>
+        <v>16.77306782980185</v>
       </c>
       <c r="Q19" t="n">
         <v>11.61280274957192</v>
       </c>
       <c r="R19" t="n">
-        <v>6.235688025120257</v>
+        <v>6.23568802512026</v>
       </c>
       <c r="S19" t="n">
-        <v>2.416864930075926</v>
+        <v>2.416864930075927</v>
       </c>
       <c r="T19" t="n">
-        <v>0.5925542603733361</v>
+        <v>0.5925542603733365</v>
       </c>
       <c r="U19" t="n">
-        <v>0.00756452247285111</v>
+        <v>0.007564522472851115</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3091697627094921</v>
+        <v>0.3091697627094923</v>
       </c>
       <c r="H20" t="n">
-        <v>3.166284832348587</v>
+        <v>3.166284832348588</v>
       </c>
       <c r="I20" t="n">
-        <v>11.9192672768577</v>
+        <v>11.91926727685771</v>
       </c>
       <c r="J20" t="n">
-        <v>26.24039714776477</v>
+        <v>26.24039714776479</v>
       </c>
       <c r="K20" t="n">
-        <v>39.32755320325758</v>
+        <v>39.32755320325761</v>
       </c>
       <c r="L20" t="n">
-        <v>48.78930732877821</v>
+        <v>48.78930732877824</v>
       </c>
       <c r="M20" t="n">
-        <v>54.28750509636314</v>
+        <v>54.28750509636317</v>
       </c>
       <c r="N20" t="n">
-        <v>55.16593368466149</v>
+        <v>55.16593368466152</v>
       </c>
       <c r="O20" t="n">
-        <v>52.09162685671897</v>
+        <v>52.091626856719</v>
       </c>
       <c r="P20" t="n">
-        <v>44.45899833982838</v>
+        <v>44.4589983398284</v>
       </c>
       <c r="Q20" t="n">
-        <v>33.38685621279468</v>
+        <v>33.3868562127947</v>
       </c>
       <c r="R20" t="n">
-        <v>19.42088510680015</v>
+        <v>19.42088510680016</v>
       </c>
       <c r="S20" t="n">
-        <v>7.045205967742557</v>
+        <v>7.045205967742562</v>
       </c>
       <c r="T20" t="n">
-        <v>1.353390636260802</v>
+        <v>1.353390636260803</v>
       </c>
       <c r="U20" t="n">
-        <v>0.02473358101675936</v>
+        <v>0.02473358101675937</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1654204065289515</v>
+        <v>0.1654204065289516</v>
       </c>
       <c r="H21" t="n">
-        <v>1.597612873582242</v>
+        <v>1.597612873582243</v>
       </c>
       <c r="I21" t="n">
-        <v>5.695395575667847</v>
+        <v>5.695395575667851</v>
       </c>
       <c r="J21" t="n">
-        <v>15.62860077649186</v>
+        <v>15.62860077649187</v>
       </c>
       <c r="K21" t="n">
-        <v>26.71176801393161</v>
+        <v>26.71176801393162</v>
       </c>
       <c r="L21" t="n">
-        <v>35.917268531648</v>
+        <v>35.91726853164802</v>
       </c>
       <c r="M21" t="n">
-        <v>41.91375826832248</v>
+        <v>41.9137582683225</v>
       </c>
       <c r="N21" t="n">
-        <v>43.0230907314048</v>
+        <v>43.02309073140482</v>
       </c>
       <c r="O21" t="n">
-        <v>39.35772277621066</v>
+        <v>39.35772277621068</v>
       </c>
       <c r="P21" t="n">
-        <v>31.58804236604162</v>
+        <v>31.58804236604164</v>
       </c>
       <c r="Q21" t="n">
-        <v>21.1157697878009</v>
+        <v>21.11576978780091</v>
       </c>
       <c r="R21" t="n">
-        <v>10.27057576677122</v>
+        <v>10.27057576677123</v>
       </c>
       <c r="S21" t="n">
-        <v>3.072611498465391</v>
+        <v>3.072611498465392</v>
       </c>
       <c r="T21" t="n">
-        <v>0.666760322807484</v>
+        <v>0.6667603228074843</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01088292148216786</v>
+        <v>0.01088292148216787</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1386829120022702</v>
+        <v>0.1386829120022703</v>
       </c>
       <c r="H22" t="n">
-        <v>1.23301716307473</v>
+        <v>1.233017163074731</v>
       </c>
       <c r="I22" t="n">
-        <v>4.170573390031909</v>
+        <v>4.170573390031911</v>
       </c>
       <c r="J22" t="n">
-        <v>9.804881878560503</v>
+        <v>9.804881878560508</v>
       </c>
       <c r="K22" t="n">
-        <v>16.11243286717284</v>
+        <v>16.11243286717285</v>
       </c>
       <c r="L22" t="n">
-        <v>20.61836675350116</v>
+        <v>20.61836675350117</v>
       </c>
       <c r="M22" t="n">
-        <v>21.73917683322859</v>
+        <v>21.7391768332286</v>
       </c>
       <c r="N22" t="n">
-        <v>21.22226779758378</v>
+        <v>21.22226779758379</v>
       </c>
       <c r="O22" t="n">
-        <v>19.60219923464816</v>
+        <v>19.60219923464817</v>
       </c>
       <c r="P22" t="n">
-        <v>16.77306782980184</v>
+        <v>16.77306782980185</v>
       </c>
       <c r="Q22" t="n">
         <v>11.61280274957192</v>
       </c>
       <c r="R22" t="n">
-        <v>6.235688025120257</v>
+        <v>6.23568802512026</v>
       </c>
       <c r="S22" t="n">
-        <v>2.416864930075926</v>
+        <v>2.416864930075927</v>
       </c>
       <c r="T22" t="n">
-        <v>0.5925542603733361</v>
+        <v>0.5925542603733365</v>
       </c>
       <c r="U22" t="n">
-        <v>0.00756452247285111</v>
+        <v>0.007564522472851115</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3091697627094921</v>
+        <v>0.3091697627094923</v>
       </c>
       <c r="H23" t="n">
-        <v>3.166284832348587</v>
+        <v>3.166284832348588</v>
       </c>
       <c r="I23" t="n">
-        <v>11.9192672768577</v>
+        <v>11.91926727685771</v>
       </c>
       <c r="J23" t="n">
-        <v>26.24039714776477</v>
+        <v>26.24039714776479</v>
       </c>
       <c r="K23" t="n">
-        <v>39.32755320325758</v>
+        <v>39.32755320325761</v>
       </c>
       <c r="L23" t="n">
-        <v>48.78930732877821</v>
+        <v>48.78930732877824</v>
       </c>
       <c r="M23" t="n">
-        <v>54.28750509636314</v>
+        <v>54.28750509636317</v>
       </c>
       <c r="N23" t="n">
-        <v>55.16593368466149</v>
+        <v>55.16593368466152</v>
       </c>
       <c r="O23" t="n">
-        <v>52.09162685671897</v>
+        <v>52.091626856719</v>
       </c>
       <c r="P23" t="n">
-        <v>44.45899833982838</v>
+        <v>44.4589983398284</v>
       </c>
       <c r="Q23" t="n">
-        <v>33.38685621279468</v>
+        <v>33.3868562127947</v>
       </c>
       <c r="R23" t="n">
-        <v>19.42088510680015</v>
+        <v>19.42088510680016</v>
       </c>
       <c r="S23" t="n">
-        <v>7.045205967742557</v>
+        <v>7.045205967742562</v>
       </c>
       <c r="T23" t="n">
-        <v>1.353390636260802</v>
+        <v>1.353390636260803</v>
       </c>
       <c r="U23" t="n">
-        <v>0.02473358101675936</v>
+        <v>0.02473358101675937</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1654204065289515</v>
+        <v>0.1654204065289516</v>
       </c>
       <c r="H24" t="n">
-        <v>1.597612873582242</v>
+        <v>1.597612873582243</v>
       </c>
       <c r="I24" t="n">
-        <v>5.695395575667847</v>
+        <v>5.695395575667851</v>
       </c>
       <c r="J24" t="n">
-        <v>15.62860077649186</v>
+        <v>15.62860077649187</v>
       </c>
       <c r="K24" t="n">
-        <v>26.71176801393161</v>
+        <v>26.71176801393162</v>
       </c>
       <c r="L24" t="n">
-        <v>35.917268531648</v>
+        <v>35.91726853164802</v>
       </c>
       <c r="M24" t="n">
-        <v>41.91375826832248</v>
+        <v>41.9137582683225</v>
       </c>
       <c r="N24" t="n">
-        <v>43.0230907314048</v>
+        <v>43.02309073140482</v>
       </c>
       <c r="O24" t="n">
-        <v>39.35772277621066</v>
+        <v>39.35772277621068</v>
       </c>
       <c r="P24" t="n">
-        <v>31.58804236604162</v>
+        <v>31.58804236604164</v>
       </c>
       <c r="Q24" t="n">
-        <v>21.1157697878009</v>
+        <v>21.11576978780091</v>
       </c>
       <c r="R24" t="n">
-        <v>10.27057576677122</v>
+        <v>10.27057576677123</v>
       </c>
       <c r="S24" t="n">
-        <v>3.072611498465391</v>
+        <v>3.072611498465392</v>
       </c>
       <c r="T24" t="n">
-        <v>0.666760322807484</v>
+        <v>0.6667603228074843</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01088292148216786</v>
+        <v>0.01088292148216787</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1386829120022702</v>
+        <v>0.1386829120022703</v>
       </c>
       <c r="H25" t="n">
-        <v>1.23301716307473</v>
+        <v>1.233017163074731</v>
       </c>
       <c r="I25" t="n">
-        <v>4.170573390031909</v>
+        <v>4.170573390031911</v>
       </c>
       <c r="J25" t="n">
-        <v>9.804881878560503</v>
+        <v>9.804881878560508</v>
       </c>
       <c r="K25" t="n">
-        <v>16.11243286717284</v>
+        <v>16.11243286717285</v>
       </c>
       <c r="L25" t="n">
-        <v>20.61836675350116</v>
+        <v>20.61836675350117</v>
       </c>
       <c r="M25" t="n">
-        <v>21.73917683322859</v>
+        <v>21.7391768332286</v>
       </c>
       <c r="N25" t="n">
-        <v>21.22226779758378</v>
+        <v>21.22226779758379</v>
       </c>
       <c r="O25" t="n">
-        <v>19.60219923464816</v>
+        <v>19.60219923464817</v>
       </c>
       <c r="P25" t="n">
-        <v>16.77306782980184</v>
+        <v>16.77306782980185</v>
       </c>
       <c r="Q25" t="n">
         <v>11.61280274957192</v>
       </c>
       <c r="R25" t="n">
-        <v>6.235688025120257</v>
+        <v>6.23568802512026</v>
       </c>
       <c r="S25" t="n">
-        <v>2.416864930075926</v>
+        <v>2.416864930075927</v>
       </c>
       <c r="T25" t="n">
-        <v>0.5925542603733361</v>
+        <v>0.5925542603733365</v>
       </c>
       <c r="U25" t="n">
-        <v>0.00756452247285111</v>
+        <v>0.007564522472851115</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>14.29110779315226</v>
+        <v>14.29110779315227</v>
       </c>
       <c r="K11" t="n">
         <v>54.32106845083943</v>
       </c>
       <c r="L11" t="n">
-        <v>37.83517001320881</v>
+        <v>54.32106845083943</v>
       </c>
       <c r="M11" t="n">
         <v>54.32106845083943</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>14.43901301495887</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>54.32106845083943</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>23.3961569982499</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35495,11 +35495,11 @@
         <v>54.32106845083943</v>
       </c>
       <c r="M12" t="n">
+        <v>54.32106845083943</v>
+      </c>
+      <c r="N12" t="n">
         <v>37.24426835612706</v>
       </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.32106845083943</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>48.20839201381735</v>
+        <v>48.2083920138173</v>
       </c>
       <c r="M13" t="n">
         <v>54.32106845083943</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>14.29110779315226</v>
+        <v>14.29110779315227</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>54.32106845083943</v>
       </c>
       <c r="L14" t="n">
-        <v>14.43901301495893</v>
+        <v>54.32106845083943</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>54.32106845083943</v>
       </c>
       <c r="N14" t="n">
-        <v>54.32106845083943</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>54.32106845083943</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>54.32106845083943</v>
+        <v>37.83517001320878</v>
       </c>
       <c r="Q14" t="n">
-        <v>23.39615699824989</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>14.88200945023401</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>54.32106845083943</v>
       </c>
       <c r="L15" t="n">
+        <v>52.12627780636105</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>54.32106845083943</v>
       </c>
-      <c r="M15" t="n">
+      <c r="Q15" t="n">
         <v>54.32106845083943</v>
-      </c>
-      <c r="N15" t="n">
-        <v>37.24426835612706</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>14.29110779315226</v>
+        <v>14.29110779315227</v>
       </c>
       <c r="K17" t="n">
-        <v>65.35444017681237</v>
+        <v>65.35444017681239</v>
       </c>
       <c r="L17" t="n">
-        <v>65.35444017681237</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>25.0265919439229</v>
+        <v>25.02659194392284</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>65.35444017681239</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>65.35444017681237</v>
+        <v>65.35444017681239</v>
       </c>
       <c r="Q17" t="n">
-        <v>23.39615699824988</v>
+        <v>23.3961569982499</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>14.882009450234</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>65.35444017681237</v>
+        <v>65.35444017681239</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,13 +35972,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>47.83184728509102</v>
+        <v>62.713856735325</v>
       </c>
       <c r="O18" t="n">
-        <v>65.35444017681237</v>
+        <v>65.35444017681239</v>
       </c>
       <c r="P18" t="n">
-        <v>65.35444017681237</v>
+        <v>65.35444017681239</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36048,16 +36048,16 @@
         <v>48.2083920138173</v>
       </c>
       <c r="M19" t="n">
-        <v>61.32305379506917</v>
+        <v>61.32305379506919</v>
       </c>
       <c r="N19" t="n">
-        <v>65.35444017681237</v>
+        <v>65.35444017681239</v>
       </c>
       <c r="O19" t="n">
         <v>44.18732714868784</v>
       </c>
       <c r="P19" t="n">
-        <v>14.05162709469532</v>
+        <v>14.05162709469533</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>14.29110779315247</v>
+        <v>14.29110779315227</v>
       </c>
       <c r="K20" t="n">
         <v>143.3831147294418</v>
       </c>
       <c r="L20" t="n">
-        <v>230.6841069092414</v>
+        <v>230.6841069092418</v>
       </c>
       <c r="M20" t="n">
         <v>273.4548053619229</v>
       </c>
       <c r="N20" t="n">
-        <v>263.0997945000547</v>
+        <v>263.0997945000548</v>
       </c>
       <c r="O20" t="n">
         <v>202.7935966977776</v>
@@ -36139,7 +36139,7 @@
         <v>135.0247107560415</v>
       </c>
       <c r="Q20" t="n">
-        <v>23.39615699824988</v>
+        <v>23.3961569982499</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>14.882009450234</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>153.3355660521512</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>268.203234055233</v>
+        <v>38.5903377772815</v>
       </c>
       <c r="M21" t="n">
-        <v>324.8127856654141</v>
+        <v>324.8127856654142</v>
       </c>
       <c r="N21" t="n">
-        <v>18.19359732270575</v>
+        <v>324.8127856654142</v>
       </c>
       <c r="O21" t="n">
         <v>290.6237976084957</v>
@@ -36218,7 +36218,7 @@
         <v>216.0764035916486</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>91.21128343762848</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36285,16 +36285,16 @@
         <v>48.2083920138173</v>
       </c>
       <c r="M22" t="n">
-        <v>61.32305379506917</v>
+        <v>61.32305379506919</v>
       </c>
       <c r="N22" t="n">
-        <v>65.35444017681237</v>
+        <v>65.35444017681239</v>
       </c>
       <c r="O22" t="n">
         <v>44.18732714868784</v>
       </c>
       <c r="P22" t="n">
-        <v>14.05162709469532</v>
+        <v>14.05162709469533</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>14.29110779315247</v>
+        <v>14.29110779315227</v>
       </c>
       <c r="K23" t="n">
         <v>143.3831147294418</v>
       </c>
       <c r="L23" t="n">
-        <v>230.6841069092414</v>
+        <v>230.6841069092415</v>
       </c>
       <c r="M23" t="n">
         <v>273.4548053619229</v>
       </c>
       <c r="N23" t="n">
-        <v>263.0997945000547</v>
+        <v>263.0997945000548</v>
       </c>
       <c r="O23" t="n">
         <v>202.7935966977776</v>
@@ -36376,7 +36376,7 @@
         <v>135.0247107560415</v>
       </c>
       <c r="Q23" t="n">
-        <v>23.39615699824988</v>
+        <v>23.3961569982499</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>14.882009450234</v>
+        <v>14.88200945023401</v>
       </c>
       <c r="K24" t="n">
         <v>153.3355660521512</v>
@@ -36443,16 +36443,16 @@
         <v>268.203234055233</v>
       </c>
       <c r="M24" t="n">
-        <v>324.8127856654141</v>
+        <v>217.6061114935731</v>
       </c>
       <c r="N24" t="n">
-        <v>324.8127856654141</v>
+        <v>324.8127856654142</v>
       </c>
       <c r="O24" t="n">
-        <v>108.8697294198073</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>216.0764035916486</v>
       </c>
       <c r="Q24" t="n">
         <v>91.21128343762848</v>
@@ -36522,16 +36522,16 @@
         <v>48.2083920138173</v>
       </c>
       <c r="M25" t="n">
-        <v>61.32305379506917</v>
+        <v>61.32305379506919</v>
       </c>
       <c r="N25" t="n">
-        <v>65.35444017681237</v>
+        <v>65.35444017681239</v>
       </c>
       <c r="O25" t="n">
         <v>44.18732714868784</v>
       </c>
       <c r="P25" t="n">
-        <v>14.05162709469532</v>
+        <v>14.05162709469533</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>230.6841069092415</v>
       </c>
       <c r="M26" t="n">
-        <v>273.4548053619229</v>
+        <v>273.4548053619231</v>
       </c>
       <c r="N26" t="n">
         <v>263.0997945000548</v>
@@ -36674,7 +36674,7 @@
         <v>14.88200945023401</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>153.3355660521512</v>
       </c>
       <c r="L27" t="n">
         <v>268.203234055233</v>
@@ -36683,16 +36683,16 @@
         <v>324.8127856654141</v>
       </c>
       <c r="N27" t="n">
-        <v>324.8127856654141</v>
+        <v>217.606111493573</v>
       </c>
       <c r="O27" t="n">
-        <v>290.6237976084957</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>62.79278130109124</v>
+        <v>216.0764035916486</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>91.21128343762848</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>14.88200945023401</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>153.3355660521512</v>
       </c>
       <c r="L30" t="n">
-        <v>23.70832832704738</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>324.8127856654141</v>
@@ -36923,13 +36923,13 @@
         <v>324.8127856654141</v>
       </c>
       <c r="O30" t="n">
-        <v>290.6237976084957</v>
+        <v>252.2078433210202</v>
       </c>
       <c r="P30" t="n">
         <v>216.0764035916486</v>
       </c>
       <c r="Q30" t="n">
-        <v>91.21128343762848</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>14.29110779315244</v>
+        <v>14.29110779315227</v>
       </c>
       <c r="K32" t="n">
         <v>143.3831147294418</v>
@@ -37084,7 +37084,7 @@
         <v>202.7935966977776</v>
       </c>
       <c r="P32" t="n">
-        <v>135.0247107560415</v>
+        <v>135.0247107560416</v>
       </c>
       <c r="Q32" t="n">
         <v>23.3961569982499</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>14.88200945023401</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>153.3355660521512</v>
       </c>
       <c r="L33" t="n">
-        <v>268.203234055233</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>324.8127856654141</v>
+        <v>210.0675573905443</v>
       </c>
       <c r="N33" t="n">
         <v>324.8127856654141</v>
@@ -37163,10 +37163,10 @@
         <v>290.6237976084957</v>
       </c>
       <c r="P33" t="n">
-        <v>62.79278130109124</v>
+        <v>216.0764035916486</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>91.21128343762848</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>14.29110779315227</v>
       </c>
       <c r="K35" t="n">
-        <v>66.28143047395235</v>
+        <v>143.3831147294418</v>
       </c>
       <c r="L35" t="n">
         <v>230.6841069092415</v>
@@ -37318,7 +37318,7 @@
         <v>263.0997945000548</v>
       </c>
       <c r="O35" t="n">
-        <v>202.7935966977776</v>
+        <v>125.6919124422882</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37546,16 +37546,16 @@
         <v>143.3831147294418</v>
       </c>
       <c r="L38" t="n">
-        <v>18.55771189771039</v>
+        <v>230.6841069092415</v>
       </c>
       <c r="M38" t="n">
         <v>270.4917172145747</v>
       </c>
       <c r="N38" t="n">
-        <v>263.0997945000548</v>
+        <v>253.7669961863013</v>
       </c>
       <c r="O38" t="n">
-        <v>202.7935966977776</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>135.0247107560415</v>
@@ -37622,7 +37622,7 @@
         <v>14.88200945023401</v>
       </c>
       <c r="K39" t="n">
-        <v>153.3355660521512</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>268.203234055233</v>
@@ -37631,16 +37631,16 @@
         <v>270.4917172145747</v>
       </c>
       <c r="N39" t="n">
+        <v>155.7579492147581</v>
+      </c>
+      <c r="O39" t="n">
         <v>270.4917172145747</v>
       </c>
-      <c r="O39" t="n">
-        <v>93.63366660023527</v>
-      </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>91.21128343762848</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,22 +37780,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>143.3831147294418</v>
+        <v>51.55966489764776</v>
       </c>
       <c r="L41" t="n">
         <v>230.6841069092415</v>
       </c>
       <c r="M41" t="n">
-        <v>235.4037815985437</v>
+        <v>259.4583454886018</v>
       </c>
       <c r="N41" t="n">
         <v>259.4583454886018</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>202.7935966977776</v>
       </c>
       <c r="P41" t="n">
-        <v>135.0247107560415</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>23.3961569982499</v>
@@ -37859,7 +37859,7 @@
         <v>14.88200945023401</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>153.3355660521512</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,13 +37868,13 @@
         <v>259.4583454886018</v>
       </c>
       <c r="N42" t="n">
-        <v>186.2638290234056</v>
+        <v>249.0046665629031</v>
       </c>
       <c r="O42" t="n">
         <v>259.4583454886018</v>
       </c>
       <c r="P42" t="n">
-        <v>216.0764035916486</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>91.21128343762848</v>
